--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurm\Desktop\gitthub\IMMD\IMMD BAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesutto\Desktop\github work\immd\Project\BAP\Procurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20745" windowHeight="8610"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="alımlar" sheetId="2" r:id="rId1"/>
+    <sheet name="plan (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="plan" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -129,12 +131,18 @@
   </si>
   <si>
     <t>Toplam</t>
+  </si>
+  <si>
+    <t>Rezistif yük</t>
+  </si>
+  <si>
+    <t>Yıldırım'a mail atıldı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,13 +568,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,7 +736,7 @@
       </c>
       <c r="L4" s="11">
         <f>H19</f>
-        <v>5097.5999999999995</v>
+        <v>3091.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -784,7 +818,7 @@
       </c>
       <c r="L7" s="11">
         <f>SUM(L4:L6)</f>
-        <v>17605.599999999999</v>
+        <v>15599.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -798,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -806,11 +840,11 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>31</v>
@@ -938,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -946,11 +980,11 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -1023,7 +1057,699 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
-        <f t="shared" ref="F8:F17" si="2">3.5*1.3*E16</f>
+        <f t="shared" ref="F16:F17" si="2">3.5*1.3*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>200</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>472</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8">
+        <f>SUM(H7:H18)</f>
+        <v>3091.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <v>500</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>500</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>500</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="9">
+        <f>SUM(H21:H24)</f>
+        <v>5900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G2" s="8">
+        <f>D2*F2</f>
+        <v>3000</v>
+      </c>
+      <c r="H2" s="8">
+        <f>G2*1.18</f>
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G24" si="0">D3*F3</f>
+        <v>1300</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H24" si="1">G3*1.18</f>
+        <v>1534</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="1"/>
+        <v>1534</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5500</v>
+      </c>
+      <c r="L4" s="11">
+        <f>H19</f>
+        <v>5097.5999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8">
+        <f>SUM(H2:H4)</f>
+        <v>6608</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6500</v>
+      </c>
+      <c r="L5" s="11">
+        <f>H25</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6500</v>
+      </c>
+      <c r="L6" s="11">
+        <f>H5</f>
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>18500</v>
+      </c>
+      <c r="L7" s="11">
+        <f>SUM(L4:L6)</f>
+        <v>17605.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>1770</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>212.39999999999998</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>60</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>283.2</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="2">3.5*1.3*E16</f>
         <v>0</v>
       </c>
       <c r="G16" s="8">

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -136,14 +136,122 @@
     <t>Rezistif yük</t>
   </si>
   <si>
-    <t>Yıldırım'a mail atıldı</t>
+    <t>Endüktif yük</t>
+  </si>
+  <si>
+    <t>Tedarik adı</t>
+  </si>
+  <si>
+    <t>Miktar</t>
+  </si>
+  <si>
+    <t>Birim</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>KDV dahil</t>
+  </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Yıldırım</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Teklif</t>
+  </si>
+  <si>
+    <t>Earsis</t>
+  </si>
+  <si>
+    <t>Baskı devre kartı dizgisi</t>
+  </si>
+  <si>
+    <t>TŞ</t>
+  </si>
+  <si>
+    <t>Hazırla</t>
+  </si>
+  <si>
+    <t>Sözleşme</t>
+  </si>
+  <si>
+    <t>Doğrultucu soğutucu</t>
+  </si>
+  <si>
+    <t>Analiz</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/vishay/vs-26mt100/bridge-rectifier-25a-3ph/dp/9098550</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Kodu</t>
+  </si>
+  <si>
+    <t>AMC1100</t>
+  </si>
+  <si>
+    <t>AMC1200</t>
+  </si>
+  <si>
+    <t>VS-26MT100</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/amc1100dub/amp-isolation-60khz-4-25kviso/dp/2144250</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/amc1200bdwv/ic-isolation-amp-60khz-soic-8/dp/2373533</t>
+  </si>
+  <si>
+    <t>B32778G4107</t>
+  </si>
+  <si>
+    <t>GS66508B</t>
+  </si>
+  <si>
+    <t>https://www.gansystems.com/transistors.php</t>
+  </si>
+  <si>
+    <t>Evirici soğutucu</t>
+  </si>
+  <si>
+    <t>Tasarım</t>
+  </si>
+  <si>
+    <t>Doğrultucu, DC bara giriş</t>
+  </si>
+  <si>
+    <t>Sürücü güç katı</t>
+  </si>
+  <si>
+    <t>Ölçümler</t>
+  </si>
+  <si>
+    <t>Kontrol</t>
+  </si>
+  <si>
+    <t>Kapı sürücü</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Güç kaynağı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,16 +282,73 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -243,11 +408,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,8 +480,122 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,27 +874,1119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5703125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36">
+        <v>2825</v>
+      </c>
+      <c r="G2" s="36">
+        <f>E2*F2</f>
+        <v>2825</v>
+      </c>
+      <c r="H2" s="36">
+        <f>1.18*G2</f>
+        <v>3333.5</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36">
+        <v>2875</v>
+      </c>
+      <c r="G3" s="36">
+        <f t="shared" ref="G3" si="0">E3*F3</f>
+        <v>2875</v>
+      </c>
+      <c r="H3" s="36">
+        <f t="shared" ref="H3:H4" si="1">1.18*G3</f>
+        <v>3392.5</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
+        <f t="shared" ref="G4" si="2">E4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="36">
+        <f>SUM(H2:H4)</f>
+        <v>6726</v>
+      </c>
+      <c r="I5" s="36">
+        <v>6500</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1900</v>
+      </c>
+      <c r="G7" s="36">
+        <f>E7*F7</f>
+        <v>3800</v>
+      </c>
+      <c r="H7" s="36">
+        <f>1.18*G7</f>
+        <v>4484</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>850</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" ref="G8:G9" si="3">E8*F8</f>
+        <v>1700</v>
+      </c>
+      <c r="H8" s="36">
+        <f>1.18*G8</f>
+        <v>2006</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <f>1.18*G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="36">
+        <f>SUM(H7:H9)</f>
+        <v>6490</v>
+      </c>
+      <c r="I10" s="36">
+        <v>6500</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="36">
+        <v>57</v>
+      </c>
+      <c r="G13" s="36">
+        <f>E13*F13</f>
+        <v>114</v>
+      </c>
+      <c r="H13" s="36">
+        <f>1.18*G13</f>
+        <v>134.51999999999998</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23">
+        <v>6</v>
+      </c>
+      <c r="F14" s="36">
+        <v>50</v>
+      </c>
+      <c r="G14" s="36">
+        <f>E14*F14</f>
+        <v>300</v>
+      </c>
+      <c r="H14" s="36">
+        <f>1.18*G14</f>
+        <v>354</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="36">
+        <f>E15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="36">
+        <f>1.18*G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36">
+        <v>65</v>
+      </c>
+      <c r="G18" s="36">
+        <f>E18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="36">
+        <f>1.18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="23">
+        <v>10</v>
+      </c>
+      <c r="F19" s="36">
+        <v>110</v>
+      </c>
+      <c r="G19" s="36">
+        <f>E19*F19</f>
+        <v>1100</v>
+      </c>
+      <c r="H19" s="36">
+        <f>1.18*G19</f>
+        <v>1298</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="36">
+        <f>E20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="36">
+        <f>1.18*G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="51"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36">
+        <f>E23*F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="36">
+        <f>1.18*G23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="50"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="23">
+        <v>20</v>
+      </c>
+      <c r="F24" s="36">
+        <v>22.5</v>
+      </c>
+      <c r="G24" s="36">
+        <f>E24*F24</f>
+        <v>450</v>
+      </c>
+      <c r="H24" s="36">
+        <f>1.18*G24</f>
+        <v>531</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="51"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="51"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36">
+        <f>E30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="36">
+        <f>1.18*G30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="36"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="50"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="23">
+        <v>5</v>
+      </c>
+      <c r="F31" s="36">
+        <v>22.5</v>
+      </c>
+      <c r="G31" s="36">
+        <f>E31*F31</f>
+        <v>112.5</v>
+      </c>
+      <c r="H31" s="36">
+        <f>1.18*G31</f>
+        <v>132.75</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36">
+        <f>E36*F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="36">
+        <f>1.18*G36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="36">
+        <f t="shared" ref="G46:G52" si="4">E46*F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <f t="shared" ref="H46:H52" si="5">1.18*G46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="36"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="50"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="50"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="50"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="50"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="36"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="36"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="50"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="36"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="50"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="36">
+        <f>SUM(H12:H27)</f>
+        <v>2317.52</v>
+      </c>
+      <c r="I53" s="36">
+        <v>5500</v>
+      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A41:J41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K31" r:id="rId1"/>
+    <hyperlink ref="K24" r:id="rId2"/>
+    <hyperlink ref="K18" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -599,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1291,7 +2689,7 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -15,6 +15,7 @@
     <sheet name="alımlar" sheetId="2" r:id="rId1"/>
     <sheet name="plan (2)" sheetId="3" r:id="rId2"/>
     <sheet name="plan" sheetId="1" r:id="rId3"/>
+    <sheet name="others" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -184,9 +185,6 @@
     <t>Doğrultucu soğutucu</t>
   </si>
   <si>
-    <t>Analiz</t>
-  </si>
-  <si>
     <t>http://tr.farnell.com/vishay/vs-26mt100/bridge-rectifier-25a-3ph/dp/9098550</t>
   </si>
   <si>
@@ -245,6 +243,33 @@
   </si>
   <si>
     <t>Güç kaynağı</t>
+  </si>
+  <si>
+    <t>Alka</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/fischer-elektronik/sk-100-100-sa/heat-sink-100mm-1-5-c-w/dp/4621839</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/fischer-elektronik/sk-85-75-sa/heat-sink-75mm-1-2-c-w/dp/4621852</t>
+  </si>
+  <si>
+    <t>Heat sink</t>
+  </si>
+  <si>
+    <t>SK 100/100 SA</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc36260/fan-50x50x10mm-5vdc/dp/1924858</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc36257/fan-40x40x10mm-12vdc/dp/1924856</t>
   </si>
 </sst>
 </file>
@@ -316,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +369,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,24 +493,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -500,6 +513,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -509,18 +588,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,60 +597,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,6 +606,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -877,1116 +915,1124 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="89.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="23">
         <v>2825</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="23">
         <f>E2*F2</f>
         <v>2825</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="23">
         <f>1.18*G2</f>
         <v>3333.5</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="40" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="23">
         <v>2875</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="23">
         <f t="shared" ref="G3" si="0">E3*F3</f>
         <v>2875</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="23">
         <f t="shared" ref="H3:H4" si="1">1.18*G3</f>
         <v>3392.5</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
         <f t="shared" ref="G4" si="2">E4*F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="36">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="23">
         <f>SUM(H2:H4)</f>
         <v>6726</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="23">
         <v>6500</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="39"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="23">
         <v>1900</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="23">
         <f>E7*F7</f>
         <v>3800</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="23">
         <f>1.18*G7</f>
         <v>4484</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <v>2</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="23">
         <v>850</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="23">
         <f t="shared" ref="G8:G9" si="3">E8*F8</f>
         <v>1700</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="23">
         <f>1.18*G8</f>
         <v>2006</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="40" t="s">
+      <c r="I8" s="39"/>
+      <c r="J8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <f>1.18*G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="38"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="36">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="23">
         <f>SUM(H7:H9)</f>
         <v>6490</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="23">
         <v>6500</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="38"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="39"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="A12" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="23">
         <v>57</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="23">
         <f>E13*F13</f>
         <v>114</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="23">
         <f>1.18*G13</f>
         <v>134.51999999999998</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="49" t="s">
-        <v>53</v>
+      <c r="I13" s="23"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="C14" s="17"/>
+      <c r="D14" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="17">
         <v>6</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="23">
         <v>50</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="23">
         <f>E14*F14</f>
         <v>300</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="23">
         <f>1.18*G14</f>
         <v>354</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="52" t="s">
-        <v>54</v>
+      <c r="I14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="37" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="36">
+      <c r="F15" s="17">
+        <v>50</v>
+      </c>
+      <c r="G15" s="23">
         <f>E15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
+        <v>100</v>
+      </c>
+      <c r="H15" s="23">
         <f>1.18*G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="50"/>
+        <v>118</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="34" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="49"/>
+      <c r="A17" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>65</v>
+      </c>
+      <c r="G18" s="23">
+        <f>E18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <f>1.18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36">
-        <v>65</v>
-      </c>
-      <c r="G18" s="36">
-        <f>E18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
-        <f>1.18*G18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="49" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="17">
         <v>10</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="23">
         <v>110</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="23">
         <f>E19*F19</f>
         <v>1100</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="23">
         <f>1.18*G19</f>
         <v>1298</v>
       </c>
-      <c r="I19" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="50"/>
+      <c r="I19" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="36">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="23">
         <f>E20*F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="23">
         <f>1.18*G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="50"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="51"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="51"/>
+      <c r="A22" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36">
+      <c r="E23" s="17"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23">
         <f>E23*F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="23">
         <f>1.18*G23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="50"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="17">
         <v>20</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="23">
         <v>22.5</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="23">
         <f>E24*F24</f>
         <v>450</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="23">
         <f>1.18*G24</f>
         <v>531</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="49" t="s">
-        <v>60</v>
+      <c r="I24" s="23"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="34" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="51"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="51"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="51"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
+      <c r="A29" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36">
+      <c r="E30" s="17"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23">
         <f>E30*F30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="23">
         <f>1.18*G30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="50"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="23">
         <v>22.5</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="23">
         <f>E31*F31</f>
         <v>112.5</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="23">
         <f>1.18*G31</f>
         <v>132.75</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="49" t="s">
-        <v>59</v>
+      <c r="I31" s="23"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23">
+        <f>E36*F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
+        <f>1.18*G36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="50"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="23">
+        <f t="shared" ref="G46:G52" si="4">E46*F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" ref="H46:H52" si="5">1.18*G46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="35"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="35"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36">
-        <f>E36*F36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="36">
-        <f>1.18*G36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="35"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="36">
-        <f t="shared" ref="G46:G52" si="4">E46*F46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
-        <f t="shared" ref="H46:H52" si="5">1.18*G46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="50"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="50"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="36">
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H50" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="50"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
+      <c r="I50" s="23"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="35"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="36">
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H51" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="50"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
+      <c r="I51" s="23"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="35"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="36">
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H52" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I50" s="36"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="50"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="36"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="36"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="50"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="36">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="23">
         <f>SUM(H12:H27)</f>
-        <v>2317.52</v>
-      </c>
-      <c r="I53" s="36">
+        <v>2435.52</v>
+      </c>
+      <c r="I53" s="23">
         <v>5500</v>
       </c>
-      <c r="J53" s="23"/>
-      <c r="K53" s="38"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A29:J29"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A29:J29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K31" r:id="rId1"/>
     <hyperlink ref="K24" r:id="rId2"/>
     <hyperlink ref="K18" r:id="rId3"/>
+    <hyperlink ref="K13" r:id="rId4"/>
+    <hyperlink ref="K15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2138,15 +2184,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -2528,15 +2574,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -2657,15 +2703,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -2830,15 +2876,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3220,15 +3266,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -3349,15 +3395,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3372,4 +3418,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>http://tr.farnell.com/multicomp/mc36257/fan-40x40x10mm-12vdc/dp/1924856</t>
+  </si>
+  <si>
+    <t>DC kondansatör</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,9 +538,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,7 +915,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,15 +1055,15 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="23">
         <f>SUM(H2:H4)</f>
         <v>6726</v>
@@ -1075,15 +1075,15 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="20"/>
       <c r="K6" s="26"/>
     </row>
@@ -1112,7 +1112,7 @@
         <f>1.18*G7</f>
         <v>4484</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="27" t="s">
@@ -1147,7 +1147,7 @@
         <f>1.18*G8</f>
         <v>2006</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="27" t="s">
         <v>49</v>
       </c>
@@ -1177,15 +1177,15 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="23">
         <f>SUM(H7:H9)</f>
         <v>6490</v>
@@ -1210,18 +1210,18 @@
       <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="17">
@@ -1281,11 +1281,11 @@
         <f>1.18*G14</f>
         <v>354</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>73</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1306,25 +1306,29 @@
         <v>2</v>
       </c>
       <c r="F15" s="17">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G15" s="23">
         <f>E15*F15</f>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H15" s="23">
         <f>1.18*G15</f>
-        <v>118</v>
-      </c>
-      <c r="I15" s="58"/>
+        <v>63.72</v>
+      </c>
+      <c r="I15" s="57"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1333,22 +1337,22 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="34"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1360,9 +1364,7 @@
       <c r="C18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>53</v>
-      </c>
+      <c r="D18" s="56"/>
       <c r="E18" s="17">
         <v>0</v>
       </c>
@@ -1379,7 +1381,7 @@
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1410,11 +1412,11 @@
         <f>1.18*G19</f>
         <v>1298</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>64</v>
       </c>
       <c r="J19" s="17"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
@@ -1423,12 +1425,8 @@
       <c r="B20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="23">
@@ -1441,7 +1439,7 @@
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="35"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -1454,22 +1452,22 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="36"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -1494,7 +1492,7 @@
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
@@ -1525,7 +1523,7 @@
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1540,7 +1538,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="36"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -1553,7 +1551,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="36"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
@@ -1566,7 +1564,7 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="36"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
@@ -1581,18 +1579,18 @@
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -1617,7 +1615,7 @@
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="35"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
@@ -1648,7 +1646,7 @@
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1689,18 +1687,18 @@
       <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -1725,7 +1723,7 @@
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
@@ -1776,18 +1774,18 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="50"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
@@ -1858,22 +1856,22 @@
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="35"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
@@ -1896,7 +1894,7 @@
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
@@ -1919,7 +1917,7 @@
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
@@ -1942,7 +1940,7 @@
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
@@ -1965,7 +1963,7 @@
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
@@ -1988,21 +1986,21 @@
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="35"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="44"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
       <c r="H53" s="23">
         <f>SUM(H12:H27)</f>
-        <v>2435.52</v>
+        <v>2381.2399999999998</v>
       </c>
       <c r="I53" s="23">
         <v>5500</v>
@@ -2184,15 +2182,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -2574,15 +2572,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -2703,15 +2701,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -2736,7 +2734,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2876,15 +2874,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3266,15 +3264,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -3395,15 +3393,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3439,12 +3437,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3454,12 +3452,12 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>DC kondansatör</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b43456a4228m000/cap-alu-elec-2200uf-350v-screw/dp/2284036</t>
+  </si>
+  <si>
+    <t>B43630A9128</t>
+  </si>
+  <si>
+    <t>Seç</t>
   </si>
 </sst>
 </file>
@@ -567,6 +576,43 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,37 +620,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -624,13 +640,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1121,7 @@
         <f>1.18*G7</f>
         <v>4484</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="50" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="27" t="s">
@@ -1147,7 +1156,7 @@
         <f>1.18*G8</f>
         <v>2006</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="27" t="s">
         <v>49</v>
       </c>
@@ -1210,18 +1219,18 @@
       <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1264,25 +1273,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="56" t="s">
-        <v>72</v>
+      <c r="D14" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="17">
         <v>6</v>
       </c>
       <c r="F14" s="23">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G14" s="23">
         <f>E14*F14</f>
-        <v>300</v>
+        <v>516</v>
       </c>
       <c r="H14" s="23">
         <f>1.18*G14</f>
-        <v>354</v>
+        <v>608.88</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="36" t="s">
@@ -1294,32 +1303,32 @@
         <v>25</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="17">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="F15" s="23">
+        <v>50</v>
       </c>
       <c r="G15" s="23">
         <f>E15*F15</f>
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="H15" s="23">
         <f>1.18*G15</f>
-        <v>63.72</v>
-      </c>
-      <c r="I15" s="57"/>
+        <v>354</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="33" t="s">
-        <v>74</v>
+      <c r="K15" s="36" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1327,218 +1336,254 @@
         <v>25</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>27</v>
+      </c>
+      <c r="G16" s="23">
+        <f>E16*F16</f>
+        <v>54</v>
+      </c>
+      <c r="H16" s="23">
+        <f>1.18*G16</f>
+        <v>63.72</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="C17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="23">
+        <v>50</v>
+      </c>
+      <c r="G17" s="23">
+        <f>E17*F17</f>
+        <v>500</v>
+      </c>
+      <c r="H17" s="23">
+        <f>1.18*G17</f>
+        <v>590</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>65</v>
-      </c>
-      <c r="G18" s="23">
-        <f>E18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <f>1.18*G18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="33" t="s">
-        <v>62</v>
-      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F19" s="23">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="G19" s="23">
         <f>E19*F19</f>
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H19" s="23">
         <f>1.18*G19</f>
-        <v>1298</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" s="23"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="34"/>
+      <c r="K19" s="33" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="17">
+        <v>10</v>
+      </c>
+      <c r="F20" s="23">
+        <v>110</v>
+      </c>
       <c r="G20" s="23">
         <f>E20*F20</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="23">
         <f>1.18*G20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="23"/>
+        <v>1298</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="J20" s="17"/>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="35"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="23">
+        <f>E21*F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <f>1.18*G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23">
-        <f>E23*F23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="23">
-        <f>1.18*G23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="34"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>56</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="17">
-        <v>20</v>
-      </c>
-      <c r="F24" s="23">
-        <v>22.5</v>
-      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="23">
         <f>E24*F24</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H24" s="23">
         <f>1.18*G24</f>
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="17">
+        <v>20</v>
+      </c>
+      <c r="F25" s="23">
+        <v>22.5</v>
+      </c>
+      <c r="G25" s="23">
+        <f>E25*F25</f>
+        <v>450</v>
+      </c>
+      <c r="H25" s="23">
+        <f>1.18*G25</f>
+        <v>531</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -1577,90 +1622,91 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23">
-        <f>E30*F30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
-        <f>1.18*G30</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="34"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>55</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="17">
-        <v>5</v>
-      </c>
-      <c r="F31" s="23">
-        <v>22.5</v>
-      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="23">
         <f>E31*F31</f>
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="H31" s="23">
         <f>1.18*G31</f>
-        <v>132.75</v>
+        <v>0</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="17">
+        <v>5</v>
+      </c>
+      <c r="F32" s="23">
+        <v>22.5</v>
+      </c>
+      <c r="G32" s="23">
+        <f>E32*F32</f>
+        <v>112.5</v>
+      </c>
+      <c r="H32" s="23">
+        <f>1.18*G32</f>
+        <v>132.75</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
@@ -1687,55 +1733,55 @@
       <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23">
-        <f>E36*F36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <f>1.18*G36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23">
+        <f>E37*F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <f>1.18*G37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
@@ -1774,30 +1820,30 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
@@ -1835,65 +1881,54 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="23">
-        <f t="shared" ref="G46:G52" si="4">E46*F46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
-        <f t="shared" ref="H46:H52" si="5">1.18*G46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="34"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="23">
+        <f t="shared" ref="G47:G53" si="4">E47*F47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" ref="H47:H53" si="5">1.18*G47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="17"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1988,46 +2023,69 @@
       <c r="J52" s="17"/>
       <c r="K52" s="34"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="23">
-        <f>SUM(H12:H27)</f>
-        <v>2381.2399999999998</v>
-      </c>
-      <c r="I53" s="23">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="23">
+        <f>SUM(H12:H28)</f>
+        <v>3580.12</v>
+      </c>
+      <c r="I54" s="23">
         <v>5500</v>
       </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="25"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K31" r:id="rId1"/>
-    <hyperlink ref="K24" r:id="rId2"/>
-    <hyperlink ref="K18" r:id="rId3"/>
+    <hyperlink ref="K32" r:id="rId1"/>
+    <hyperlink ref="K25" r:id="rId2"/>
+    <hyperlink ref="K19" r:id="rId3"/>
     <hyperlink ref="K13" r:id="rId4"/>
-    <hyperlink ref="K15" r:id="rId5"/>
+    <hyperlink ref="K16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2182,15 +2240,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -2572,15 +2630,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -2701,15 +2759,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -2874,15 +2932,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3264,15 +3322,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -3393,15 +3451,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3437,12 +3495,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3452,12 +3510,12 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="39" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -173,33 +173,15 @@
     <t>Baskı devre kartı dizgisi</t>
   </si>
   <si>
-    <t>TŞ</t>
-  </si>
-  <si>
-    <t>Hazırla</t>
-  </si>
-  <si>
-    <t>Sözleşme</t>
-  </si>
-  <si>
     <t>Doğrultucu soğutucu</t>
   </si>
   <si>
     <t>http://tr.farnell.com/vishay/vs-26mt100/bridge-rectifier-25a-3ph/dp/9098550</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Kodu</t>
   </si>
   <si>
-    <t>AMC1100</t>
-  </si>
-  <si>
-    <t>AMC1200</t>
-  </si>
-  <si>
     <t>VS-26MT100</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>Alka</t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>http://tr.farnell.com/fischer-elektronik/sk-100-100-sa/heat-sink-100mm-1-5-c-w/dp/4621839</t>
   </si>
   <si>
@@ -282,6 +261,57 @@
   </si>
   <si>
     <t>Seç</t>
+  </si>
+  <si>
+    <t>GaN EVM</t>
+  </si>
+  <si>
+    <t>İzole kaynak 5V</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>MCU buffer</t>
+  </si>
+  <si>
+    <t>Sense direnci</t>
+  </si>
+  <si>
+    <t>Konektör</t>
+  </si>
+  <si>
+    <t>9V üretici</t>
+  </si>
+  <si>
+    <t>6V üretici</t>
+  </si>
+  <si>
+    <t>Gate drive entegre</t>
+  </si>
+  <si>
+    <t>Divider dirençleri</t>
+  </si>
+  <si>
+    <t>Flyback entegre</t>
+  </si>
+  <si>
+    <t>Flyback trafo</t>
+  </si>
+  <si>
+    <t>Transistör</t>
+  </si>
+  <si>
+    <t>Diyot</t>
+  </si>
+  <si>
+    <t>Kapasitör</t>
+  </si>
+  <si>
+    <t>MCU supply</t>
+  </si>
+  <si>
+    <t>MU haberleşme</t>
   </si>
 </sst>
 </file>
@@ -353,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,18 +398,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,25 +555,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,9 +573,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,19 +585,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -596,22 +611,40 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,26 +652,32 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -921,66 +960,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="89.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>54</v>
+      <c r="C1" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="36" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="60" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="16"/>
@@ -990,30 +1025,27 @@
       <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="23">
-        <v>2825</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="F2" s="22">
+        <v>2625</v>
+      </c>
+      <c r="G2" s="22">
         <f>E2*F2</f>
-        <v>2825</v>
-      </c>
-      <c r="H2" s="23">
+        <v>2625</v>
+      </c>
+      <c r="H2" s="22">
         <f>1.18*G2</f>
-        <v>3333.5</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="25" t="s">
+        <v>3097.5</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="60" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="16"/>
@@ -1023,85 +1055,89 @@
       <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>2875</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f t="shared" ref="G3" si="0">E3*F3</f>
         <v>2875</v>
       </c>
-      <c r="H3" s="23">
-        <f t="shared" ref="H3:H4" si="1">1.18*G3</f>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3" si="1">1.18*G3</f>
         <v>3392.5</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
-        <f t="shared" ref="G4" si="2">E4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="23">
-        <f>SUM(H2:H4)</f>
-        <v>6726</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="22">
+        <f>SUM(H2:H3)</f>
+        <v>6490</v>
+      </c>
+      <c r="I4" s="22">
         <v>6500</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1900</v>
+      </c>
+      <c r="G6" s="22">
+        <f>E6*F6</f>
+        <v>3800</v>
+      </c>
+      <c r="H6" s="22">
+        <f>1.18*G6</f>
+        <v>4484</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>20</v>
+      <c r="B7" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
@@ -1110,985 +1146,1218 @@
       <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="23">
-        <v>1900</v>
-      </c>
-      <c r="G7" s="23">
-        <f>E7*F7</f>
-        <v>3800</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="F7" s="22">
+        <v>850</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" ref="G7" si="2">E7*F7</f>
+        <v>1700</v>
+      </c>
+      <c r="H7" s="22">
         <f>1.18*G7</f>
-        <v>4484</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="22">
+        <f>SUM(H6:H7)</f>
+        <v>6490</v>
+      </c>
+      <c r="I8" s="22">
+        <v>6500</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>57</v>
+      </c>
+      <c r="G11" s="22">
+        <f>E11*F11</f>
+        <v>114</v>
+      </c>
+      <c r="H11" s="22">
+        <f>1.18*G11</f>
+        <v>134.51999999999998</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-      <c r="F8" s="23">
-        <v>850</v>
-      </c>
-      <c r="G8" s="23">
-        <f t="shared" ref="G8:G9" si="3">E8*F8</f>
-        <v>1700</v>
-      </c>
-      <c r="H8" s="23">
-        <f>1.18*G8</f>
-        <v>2006</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <f>1.18*G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="23">
-        <f>SUM(H7:H9)</f>
-        <v>6490</v>
-      </c>
-      <c r="I10" s="23">
-        <v>6500</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="17" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23">
-        <v>57</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F12" s="22">
+        <v>86</v>
+      </c>
+      <c r="G12" s="22">
+        <f>E12*F12</f>
+        <v>516</v>
+      </c>
+      <c r="H12" s="22">
+        <f>1.18*G12</f>
+        <v>608.88</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
         <f>E13*F13</f>
-        <v>114</v>
-      </c>
-      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
         <f>1.18*G13</f>
-        <v>134.51999999999998</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="17"/>
+      <c r="B14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="D14" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="17">
-        <v>6</v>
-      </c>
-      <c r="F14" s="23">
-        <v>86</v>
-      </c>
-      <c r="G14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>27</v>
+      </c>
+      <c r="G14" s="22">
         <f>E14*F14</f>
-        <v>516</v>
-      </c>
-      <c r="H14" s="23">
+        <v>54</v>
+      </c>
+      <c r="H14" s="22">
         <f>1.18*G14</f>
-        <v>608.88</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="36" t="s">
+        <v>63.72</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="17">
+        <v>10</v>
+      </c>
+      <c r="F15" s="22">
+        <v>50</v>
+      </c>
+      <c r="G15" s="22">
+        <f>E15*F15</f>
+        <v>500</v>
+      </c>
+      <c r="H15" s="22">
+        <f>1.18*G15</f>
+        <v>590</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>65</v>
+      </c>
+      <c r="G17" s="22">
+        <f>E17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <f>1.18*G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="17">
+        <v>10</v>
+      </c>
+      <c r="F18" s="22">
+        <v>110</v>
+      </c>
+      <c r="G18" s="22">
+        <f>E18*F18</f>
+        <v>1100</v>
+      </c>
+      <c r="H18" s="22">
+        <f>1.18*G18</f>
+        <v>1298</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f>E19*F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <f>1.18*G19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <f>E22*F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f>1.18*G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="17">
+        <v>20</v>
+      </c>
+      <c r="F23" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="G23" s="22">
+        <f>E23*F23</f>
+        <v>450</v>
+      </c>
+      <c r="H23" s="22">
+        <f>1.18*G23</f>
+        <v>531</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="17">
-        <v>6</v>
-      </c>
-      <c r="F15" s="23">
-        <v>50</v>
-      </c>
-      <c r="G15" s="23">
-        <f>E15*F15</f>
-        <v>300</v>
-      </c>
-      <c r="H15" s="23">
-        <f>1.18*G15</f>
-        <v>354</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="17">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17">
-        <v>27</v>
-      </c>
-      <c r="G16" s="23">
-        <f>E16*F16</f>
-        <v>54</v>
-      </c>
-      <c r="H16" s="23">
-        <f>1.18*G16</f>
-        <v>63.72</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="17">
-        <v>10</v>
-      </c>
-      <c r="F17" s="23">
-        <v>50</v>
-      </c>
-      <c r="G17" s="23">
-        <f>E17*F17</f>
-        <v>500</v>
-      </c>
-      <c r="H17" s="23">
-        <f>1.18*G17</f>
-        <v>590</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>65</v>
-      </c>
-      <c r="G19" s="23">
-        <f>E19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <f>1.18*G19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="17">
-        <v>10</v>
-      </c>
-      <c r="F20" s="23">
-        <v>110</v>
-      </c>
-      <c r="G20" s="23">
-        <f>E20*F20</f>
-        <v>1100</v>
-      </c>
-      <c r="H20" s="23">
-        <f>1.18*G20</f>
-        <v>1298</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="23">
-        <f>E21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <f>1.18*G21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="17"/>
+      <c r="B24" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23">
-        <f>E24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="23">
-        <f>1.18*G24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" ref="G24:G27" si="3">E24*F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" ref="H24:H27" si="4">1.18*G24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>16</v>
+      <c r="B25" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="17">
-        <v>20</v>
-      </c>
-      <c r="F25" s="23">
+        <v>5</v>
+      </c>
+      <c r="F25" s="22">
         <v>22.5</v>
       </c>
-      <c r="G25" s="23">
-        <f>E25*F25</f>
-        <v>450</v>
-      </c>
-      <c r="H25" s="23">
-        <f>1.18*G25</f>
-        <v>531</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G25" s="22">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="4"/>
+        <v>132.75</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <f>E30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
+        <f>1.18*G30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>17</v>
+      <c r="B31" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23">
-        <f>E31*F31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
-        <f>1.18*G31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" ref="G31:G34" si="5">E31*F31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" ref="H31:H34" si="6">1.18*G31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="B32" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="16"/>
       <c r="D32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="17">
-        <v>5</v>
-      </c>
-      <c r="F32" s="23">
-        <v>22.5</v>
-      </c>
-      <c r="G32" s="23">
-        <f>E32*F32</f>
-        <v>112.5</v>
-      </c>
-      <c r="H32" s="23">
-        <f>1.18*G32</f>
-        <v>132.75</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <f>E36*F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
+        <f>1.18*G36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="17"/>
+      <c r="B37" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23">
-        <f>E37*F37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
-        <f>1.18*G37</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" ref="G37:G40" si="7">E37*F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" ref="H37:H40" si="8">1.18*G37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <f>E42*F42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <f>G42*1.18</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" ref="G43:G47" si="9">E43*F43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" ref="H43:H47" si="10">G43*1.18</f>
+        <v>0</v>
+      </c>
       <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="17"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="23"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="23">
-        <f t="shared" ref="G47:G53" si="4">E47*F47</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="23">
-        <f t="shared" ref="H47:H53" si="5">1.18*G47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="17"/>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="30"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="17"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="30"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="30"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="17"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G52" s="22">
+        <f t="shared" ref="G47:G56" si="11">E52*F52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
+        <f t="shared" ref="H47:H56" si="12">1.18*G52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="30"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="34"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="G53" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="30"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="30"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="30"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="30"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="23">
-        <f>SUM(H12:H28)</f>
-        <v>3580.12</v>
-      </c>
-      <c r="I54" s="23">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="22">
+        <f>SUM(H10:H26)</f>
+        <v>3358.87</v>
+      </c>
+      <c r="I57" s="22">
         <v>5500</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="25"/>
+      <c r="J57" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A30:J30"/>
+  <mergeCells count="12">
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A48:I48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K32" r:id="rId1"/>
-    <hyperlink ref="K25" r:id="rId2"/>
-    <hyperlink ref="K19" r:id="rId3"/>
-    <hyperlink ref="K13" r:id="rId4"/>
-    <hyperlink ref="K16" r:id="rId5"/>
+    <hyperlink ref="J31" r:id="rId1"/>
+    <hyperlink ref="J23" r:id="rId2"/>
+    <hyperlink ref="J17" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J14" r:id="rId5"/>
+    <hyperlink ref="J15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2240,15 +2509,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -2630,15 +2899,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -2759,15 +3028,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -2932,15 +3201,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3322,15 +3591,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -3451,15 +3720,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3491,32 +3760,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>75</v>
+      <c r="A2" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>74</v>
+      <c r="A3" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>79</v>
+      <c r="A5" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>80</v>
+      <c r="A6" s="35" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesutto\Desktop\github work\immd\Project\BAP\Procurement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesutto\Desktop\github work\IMMD\Project\BAP\Procurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -191,9 +191,6 @@
     <t>http://tr.farnell.com/texas-instruments/amc1200bdwv/ic-isolation-amp-60khz-soic-8/dp/2373533</t>
   </si>
   <si>
-    <t>B32778G4107</t>
-  </si>
-  <si>
     <t>GS66508B</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>Güç kaynağı</t>
   </si>
   <si>
-    <t>Alka</t>
-  </si>
-  <si>
     <t>http://tr.farnell.com/fischer-elektronik/sk-100-100-sa/heat-sink-100mm-1-5-c-w/dp/4621839</t>
   </si>
   <si>
@@ -254,15 +248,9 @@
     <t>DC kondansatör</t>
   </si>
   <si>
-    <t>http://tr.farnell.com/epcos/b43456a4228m000/cap-alu-elec-2200uf-350v-screw/dp/2284036</t>
-  </si>
-  <si>
     <t>B43630A9128</t>
   </si>
   <si>
-    <t>Seç</t>
-  </si>
-  <si>
     <t>GaN EVM</t>
   </si>
   <si>
@@ -312,6 +300,60 @@
   </si>
   <si>
     <t>MU haberleşme</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b43630a9128m000/cap-alu-elec-1200uf-400v-snap/dp/2750326</t>
+  </si>
+  <si>
+    <t>Silicon grease</t>
+  </si>
+  <si>
+    <t>PPC115 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/pro-power/ppc115/paste-thermal-200g-tube/dp/1760631?MER=sy-me-pd-mi-alte</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b64290l0730x087/ferrite-core-n87-2-79uh/dp/2673408</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b32774d4106k000/cap-film-pp-10uf-450v-rad/dp/2469089</t>
+  </si>
+  <si>
+    <t>B32774D4106K000 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b32774d4226k000/cap-film-pp-22uf-450v-rad/dp/2469090</t>
+  </si>
+  <si>
+    <t>B32774D4226K000 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b32776g4406k000/cap-film-pp-40uf-450v-rad/dp/2469096</t>
+  </si>
+  <si>
+    <t>B32776G4406K000 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/epcos/b32778g4107k000/capacitor-film-pp-100uf-450v-rad/dp/2525333</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>40u</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>20u</t>
+  </si>
+  <si>
+    <t>B32778G4107K000 </t>
   </si>
 </sst>
 </file>
@@ -383,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,6 +631,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,13 +664,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,46 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,21 +984,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="89.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -983,25 +1007,25 @@
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -1015,7 +1039,7 @@
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="16"/>
@@ -1045,7 +1069,7 @@
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="16"/>
@@ -1072,15 +1096,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="22">
         <f>SUM(H2:H3)</f>
         <v>6490</v>
@@ -1092,12 +1116,12 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="58"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="24"/>
@@ -1106,7 +1130,7 @@
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="16"/>
@@ -1127,7 +1151,7 @@
         <f>1.18*G6</f>
         <v>4484</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="23" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1160,7 @@
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="16"/>
@@ -1157,21 +1181,21 @@
         <f>1.18*G7</f>
         <v>2006</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="22">
         <f>SUM(H6:H7)</f>
         <v>6490</v>
@@ -1183,28 +1207,28 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="62"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1223,15 +1247,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="22">
-        <v>57</v>
+        <v>12.7</v>
       </c>
       <c r="G11" s="22">
-        <f>E11*F11</f>
-        <v>114</v>
+        <f>E11*F11*4.8</f>
+        <v>121.91999999999999</v>
       </c>
       <c r="H11" s="22">
         <f>1.18*G11</f>
-        <v>134.51999999999998</v>
+        <v>143.86559999999997</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="29" t="s">
@@ -1250,82 +1274,86 @@
         <v>43</v>
       </c>
       <c r="E12" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="22">
-        <v>86</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="G12" s="22">
-        <f>E12*F12</f>
-        <v>516</v>
+        <f t="shared" ref="G12:G15" si="3">E12*F12*4.8</f>
+        <v>460.56</v>
       </c>
       <c r="H12" s="22">
-        <f>1.18*G12</f>
-        <v>608.88</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="32"/>
+        <f t="shared" ref="H12:H15" si="4">1.18*G12</f>
+        <v>543.46079999999995</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="59" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="50">
-        <v>0</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0</v>
-      </c>
-      <c r="G13" s="51">
-        <f>E13*F13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="51">
-        <f>1.18*G13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
+      <c r="A13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>5.96</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="3"/>
+        <v>57.216000000000001</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="4"/>
+        <v>67.514879999999991</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="29" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="17">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="F14" s="22">
+        <v>10.91</v>
       </c>
       <c r="G14" s="22">
-        <f>E14*F14</f>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>523.67999999999995</v>
       </c>
       <c r="H14" s="22">
-        <f>1.18*G14</f>
-        <v>63.72</v>
-      </c>
-      <c r="I14" s="34"/>
+        <f t="shared" si="4"/>
+        <v>617.94239999999991</v>
+      </c>
+      <c r="I14" s="22"/>
       <c r="J14" s="29" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1333,45 +1361,45 @@
         <v>25</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" s="22">
-        <v>50</v>
+        <v>13.95</v>
       </c>
       <c r="G15" s="22">
-        <f>E15*F15</f>
-        <v>500</v>
+        <f>E15*F15*4.8</f>
+        <v>66.959999999999994</v>
       </c>
       <c r="H15" s="22">
-        <f>1.18*G15</f>
-        <v>590</v>
+        <f t="shared" si="4"/>
+        <v>79.012799999999984</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="29" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="A16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1382,9 +1410,11 @@
         <v>10</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="E17" s="17">
         <v>0</v>
       </c>
@@ -1392,16 +1422,18 @@
         <v>65</v>
       </c>
       <c r="G17" s="22">
-        <f>E17*F17</f>
+        <f>E17*F17*4.8</f>
         <v>0</v>
       </c>
       <c r="H17" s="22">
         <f>1.18*G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="J17" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,253 +1444,283 @@
         <v>11</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F18" s="22">
-        <v>110</v>
+        <v>2.76</v>
       </c>
       <c r="G18" s="22">
-        <f>E18*F18</f>
-        <v>1100</v>
+        <f t="shared" ref="G18:G23" si="5">E18*F18*4.8</f>
+        <v>211.96799999999999</v>
       </c>
       <c r="H18" s="22">
-        <f>1.18*G18</f>
-        <v>1298</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="30"/>
+        <f t="shared" ref="H18:H23" si="6">1.18*G18</f>
+        <v>250.12223999999998</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F19" s="22">
+        <v>6.16</v>
       </c>
       <c r="G19" s="22">
-        <f>E19*F19</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>295.68</v>
       </c>
       <c r="H19" s="22">
-        <f>1.18*G19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>348.9024</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="31"/>
+      <c r="B20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5</v>
+      </c>
+      <c r="F20" s="22">
+        <v>13.23</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="5"/>
+        <v>317.52000000000004</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="6"/>
+        <v>374.67360000000002</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>18.02</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" ref="G21" si="7">E21*F21*4.8</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22">
-        <f>E22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
-        <f>1.18*G22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17">
-        <v>20</v>
-      </c>
-      <c r="F23" s="22">
-        <v>22.5</v>
-      </c>
-      <c r="G23" s="22">
-        <f>E23*F23</f>
-        <v>450</v>
-      </c>
-      <c r="H23" s="22">
-        <f>1.18*G23</f>
-        <v>531</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" ref="G24:G27" si="3">E24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
-        <f t="shared" ref="H24:H27" si="4">1.18*G24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>15</v>
-      </c>
       <c r="C25" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="3"/>
-        <v>112.5</v>
+        <f>E25*F25</f>
+        <v>0</v>
       </c>
       <c r="H25" s="22">
-        <f t="shared" si="4"/>
-        <v>132.75</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <f>1.18*G25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>80</v>
+      <c r="B26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="31"/>
+      <c r="E26" s="17">
+        <v>20</v>
+      </c>
+      <c r="F26" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="G26" s="22">
+        <f>E26*F26</f>
+        <v>450</v>
+      </c>
+      <c r="H26" s="22">
+        <f>1.18*G26</f>
+        <v>531</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="29" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>87</v>
+      <c r="B27" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>43</v>
@@ -1669,227 +1731,249 @@
       <c r="F27" s="16">
         <v>0</v>
       </c>
-      <c r="G27" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="4"/>
+      <c r="G27" s="22">
+        <f t="shared" ref="G27:G30" si="8">E27*F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" ref="H27:H30" si="9">1.18*G27</f>
         <v>0</v>
       </c>
       <c r="I27" s="18"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="17">
+        <v>5</v>
+      </c>
+      <c r="F28" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="8"/>
+        <v>112.5</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="9"/>
+        <v>132.75</v>
+      </c>
       <c r="I28" s="18"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="17"/>
+      <c r="B30" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <f>E30*F30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
-        <f>1.18*G30</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22">
-        <f t="shared" ref="G31:G34" si="5">E31*F31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
-        <f t="shared" ref="H31:H34" si="6">1.18*G31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="16"/>
+      <c r="B33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="16">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
         <v>0</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" si="5"/>
+        <f>E33*F33</f>
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <f>1.18*G33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
         <v>0</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G34:G37" si="10">E34*F34</f>
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="18"/>
+        <f t="shared" ref="H34:H37" si="11">1.18*G34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="22"/>
+      <c r="J34" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="17"/>
+      <c r="B36" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22">
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
         <v>0</v>
       </c>
       <c r="G36" s="22">
-        <f>E36*F36</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <f>1.18*G36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="30"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="60" t="s">
-        <v>84</v>
-      </c>
+      <c r="B37" s="40"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17" t="s">
         <v>43</v>
@@ -1901,74 +1985,63 @@
         <v>0</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" ref="G37:G40" si="7">E37*F37</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" ref="H37:H40" si="8">1.18*G37</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="16">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16">
-        <v>0</v>
-      </c>
-      <c r="G38" s="22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="16"/>
+      <c r="B39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="16">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
         <v>0</v>
       </c>
       <c r="G39" s="22">
-        <f t="shared" si="7"/>
+        <f>E39*F39</f>
         <v>0</v>
       </c>
       <c r="H39" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="18"/>
+        <f>1.18*G39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="60"/>
+      <c r="B40" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
         <v>43</v>
@@ -1980,34 +2053,48 @@
         <v>0</v>
       </c>
       <c r="G40" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G40:G43" si="12">E40*F40</f>
         <v>0</v>
       </c>
       <c r="H40" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H40:H43" si="13">1.18*G40</f>
         <v>0</v>
       </c>
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>88</v>
+      <c r="A42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="17" t="s">
@@ -2019,23 +2106,21 @@
       <c r="F42" s="16">
         <v>0</v>
       </c>
-      <c r="G42" s="16">
-        <f>E42*F42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="16">
-        <f>G42*1.18</f>
+      <c r="G42" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="22">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>89</v>
-      </c>
+      <c r="A43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="40"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17" t="s">
         <v>43</v>
@@ -2046,49 +2131,35 @@
       <c r="F43" s="16">
         <v>0</v>
       </c>
-      <c r="G43" s="16">
-        <f t="shared" ref="G43:G47" si="9">E43*F43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
-        <f t="shared" ref="H43:H47" si="10">G43*1.18</f>
+      <c r="G43" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="16">
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <v>0</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="18"/>
+      <c r="A44" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="60" t="s">
-        <v>91</v>
+      <c r="B45" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17" t="s">
@@ -2101,11 +2172,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="16">
-        <f t="shared" si="9"/>
+        <f>E45*F45</f>
         <v>0</v>
       </c>
       <c r="H45" s="16">
-        <f t="shared" si="10"/>
+        <f>G45*1.18</f>
         <v>0</v>
       </c>
       <c r="I45" s="18"/>
@@ -2114,8 +2185,8 @@
       <c r="A46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="60" t="s">
-        <v>92</v>
+      <c r="B46" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17" t="s">
@@ -2128,11 +2199,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G46:G50" si="14">E46*F46</f>
         <v>0</v>
       </c>
       <c r="H46" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H46:H50" si="15">G46*1.18</f>
         <v>0</v>
       </c>
       <c r="I46" s="18"/>
@@ -2141,8 +2212,10 @@
       <c r="A47" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="16"/>
       <c r="D47" s="17" t="s">
         <v>43</v>
       </c>
@@ -2153,125 +2226,144 @@
         <v>0</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H47" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="30"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="30"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="G48" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="D50" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="I50" s="22"/>
       <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
+      <c r="A51" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
       <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A52" s="17"/>
       <c r="B52" s="23"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="22">
-        <f t="shared" ref="G47:G56" si="11">E52*F52</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="22">
-        <f t="shared" ref="H47:H56" si="12">1.18*G52</f>
-        <v>0</v>
-      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="23"/>
+      <c r="A53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="30"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="22"/>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
       <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,11 +2376,11 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G55:G59" si="16">E55*F55</f>
         <v>0</v>
       </c>
       <c r="H55" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H55:H59" si="17">1.18*G55</f>
         <v>0</v>
       </c>
       <c r="I55" s="22"/>
@@ -2304,57 +2396,117 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H56" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="30"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="30"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="30"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="30"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="22">
-        <f>SUM(H10:H26)</f>
-        <v>3358.87</v>
-      </c>
-      <c r="I57" s="22">
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="22">
+        <f>SUM(H10:H29)</f>
+        <v>3089.2447199999997</v>
+      </c>
+      <c r="I60" s="22">
         <v>5500</v>
       </c>
-      <c r="J57" s="30"/>
+      <c r="J60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A38:I38"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A60:G60"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A51:I51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J31" r:id="rId1"/>
-    <hyperlink ref="J23" r:id="rId2"/>
+    <hyperlink ref="J34" r:id="rId1"/>
+    <hyperlink ref="J26" r:id="rId2"/>
     <hyperlink ref="J17" r:id="rId3"/>
     <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J14" r:id="rId5"/>
-    <hyperlink ref="J15" r:id="rId6"/>
+    <hyperlink ref="J13" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -2509,15 +2661,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -2899,15 +3051,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -3028,15 +3180,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3201,15 +3353,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3591,15 +3743,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -3720,15 +3872,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3760,32 +3912,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>68</v>
+      <c r="A2" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>67</v>
+      <c r="A3" s="34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -269,15 +269,9 @@
     <t>Konektör</t>
   </si>
   <si>
-    <t>9V üretici</t>
-  </si>
-  <si>
     <t>6V üretici</t>
   </si>
   <si>
-    <t>Gate drive entegre</t>
-  </si>
-  <si>
     <t>Divider dirençleri</t>
   </si>
   <si>
@@ -354,13 +348,100 @@
   </si>
   <si>
     <t>B32778G4107K000 </t>
+  </si>
+  <si>
+    <t>9V üretici (boost)</t>
+  </si>
+  <si>
+    <t>SI8271GB-IS</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/xp-power/ise0509a/dc-dc-converter-9v-0-111a/dp/2475763</t>
+  </si>
+  <si>
+    <t>ISE0509A </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/silicon-labs/si8271gb-is/high-cmti-driver-1ch-4a-2-5kv/dp/2524445</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lp2985aim5-6-1-nopb/ldo-fixed-6-1v-0-15a-sot-23-5/dp/2492278</t>
+  </si>
+  <si>
+    <t>LP2985AIM5-6.1/NOPB</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>UF1J+</t>
+  </si>
+  <si>
+    <t>http://fr.farnell.com/multicomp/uf1j/diode-simple-1a-600v-do-214ac/dp/2748192</t>
+  </si>
+  <si>
+    <t>Diğer</t>
+  </si>
+  <si>
+    <t>Cap 220uF 10V</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/cornell-dubilier/ave227m10x16t-f/aluminum-electrolytic-capacitor/dp/2355274</t>
+  </si>
+  <si>
+    <t>Cap 220uF 25V</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/cornell-dubilier/sk221m025st/aluminum-electrolytic-capacitor/dp/1386081</t>
+  </si>
+  <si>
+    <t>Cap 220uF 35V</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/cornell-dubilier/afk227m35f24t-f/aluminum-electrolytic-capacitor/dp/2131906</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/cornell-dubilier/sek221m035st/aluminum-electrolytic-capacitor/dp/4854597</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>5V supply linear</t>
+  </si>
+  <si>
+    <t>MC7805CD2TG </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/mc7805cd2tg/ic-linear-voltage-regulator-5v/dp/2148607</t>
+  </si>
+  <si>
+    <t>Adj supply</t>
+  </si>
+  <si>
+    <t>5v 1a</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/tl2575-05ikttr/ic-step-down-regulator-to-263/dp/1755278</t>
+  </si>
+  <si>
+    <t>5v 2a</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm2592hvsx-5-0-nopb/dc-dc-conv-buck-150khz-to-263/dp/2782447</t>
+  </si>
+  <si>
+    <t>5v 3a</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm2596sx-5-0-nopb/step-down-voltage-regulator-to/dp/1496094</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +500,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -542,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,6 +741,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,8 +792,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,17 +1094,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
@@ -1096,15 +1206,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="22">
         <f>SUM(H2:H3)</f>
         <v>6490</v>
@@ -1151,7 +1261,7 @@
         <f>1.18*G6</f>
         <v>4484</v>
       </c>
-      <c r="I6" s="51"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="23" t="s">
         <v>45</v>
       </c>
@@ -1181,21 +1291,21 @@
         <f>1.18*G7</f>
         <v>2006</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="22">
         <f>SUM(H6:H7)</f>
         <v>6490</v>
@@ -1218,17 +1328,17 @@
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1280,7 +1390,7 @@
         <v>19.190000000000001</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" ref="G12:G15" si="3">E12*F12*4.8</f>
+        <f t="shared" ref="G12:G14" si="3">E12*F12*4.8</f>
         <v>460.56</v>
       </c>
       <c r="H12" s="22">
@@ -1288,8 +1398,8 @@
         <v>543.46079999999995</v>
       </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="59" t="s">
-        <v>95</v>
+      <c r="J12" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1353,7 +1463,7 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1361,10 +1471,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>43</v>
@@ -1385,21 +1495,21 @@
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1413,7 +1523,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
@@ -1444,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>43</v>
@@ -1464,10 +1574,10 @@
         <v>250.12223999999998</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1478,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>43</v>
@@ -1498,10 +1608,10 @@
         <v>348.9024</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1512,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>43</v>
@@ -1532,10 +1642,10 @@
         <v>374.67360000000002</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1546,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>43</v>
@@ -1566,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1580,10 +1690,10 @@
         <v>56</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -1612,10 +1722,10 @@
         <v>74</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="16">
         <v>0</v>
@@ -1637,17 +1747,17 @@
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>76</v>
@@ -1845,17 +1955,17 @@
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -1920,7 +2030,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="17" t="s">
@@ -1947,7 +2057,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
@@ -1995,172 +2105,188 @@
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="61" t="s">
+        <v>108</v>
+      </c>
       <c r="D39" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F39" s="22">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G39" s="22">
         <f>E39*F39</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H39" s="22">
         <f>1.18*G39</f>
-        <v>0</v>
+        <v>90.86</v>
       </c>
       <c r="I39" s="22"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="29" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="16"/>
+        <v>107</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="D40" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F40" s="16">
-        <v>0</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G40" s="22">
-        <f t="shared" ref="G40:G43" si="12">E40*F40</f>
-        <v>0</v>
+        <f t="shared" ref="G40:G45" si="12">E40*F40</f>
+        <v>202.99999999999997</v>
       </c>
       <c r="H40" s="22">
-        <f t="shared" ref="H40:H43" si="13">1.18*G40</f>
-        <v>0</v>
+        <f t="shared" ref="H40:H45" si="13">1.18*G40</f>
+        <v>239.53999999999996</v>
       </c>
       <c r="I40" s="18"/>
+      <c r="J40" s="60" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="D41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F41" s="16">
-        <v>0</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41.948999999999991</v>
       </c>
       <c r="I41" s="18"/>
+      <c r="J41" s="60" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A42" s="17"/>
       <c r="B42" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="16"/>
+        <v>114</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="D42" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F42" s="16">
-        <v>0</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G42" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="H42" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.7172000000000001</v>
       </c>
       <c r="I42" s="18"/>
+      <c r="J42" s="60" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A43" s="17"/>
       <c r="B43" s="40"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="16">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="60"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H44" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>84</v>
-      </c>
+      <c r="A45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="40"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17" t="s">
         <v>43</v>
@@ -2171,49 +2297,35 @@
       <c r="F45" s="16">
         <v>0</v>
       </c>
-      <c r="G45" s="16">
-        <f>E45*F45</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <f>G45*1.18</f>
+      <c r="G45" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="16">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
-        <f t="shared" ref="G46:G50" si="14">E46*F46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" ref="H46:H50" si="15">G46*1.18</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="18"/>
+      <c r="A46" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17" t="s">
@@ -2226,11 +2338,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="14"/>
+        <f>E47*F47</f>
         <v>0</v>
       </c>
       <c r="H47" s="16">
-        <f t="shared" si="15"/>
+        <f>G47*1.18</f>
         <v>0</v>
       </c>
       <c r="I47" s="18"/>
@@ -2240,7 +2352,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17" t="s">
@@ -2253,11 +2365,11 @@
         <v>0</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G48:G52" si="14">E48*F48</f>
         <v>0</v>
       </c>
       <c r="H48" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H48:H52" si="15">G48*1.18</f>
         <v>0</v>
       </c>
       <c r="I48" s="18"/>
@@ -2267,7 +2379,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17" t="s">
@@ -2293,8 +2405,10 @@
       <c r="A50" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="17" t="s">
         <v>43</v>
       </c>
@@ -2312,193 +2426,507 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="30"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="B52" s="23"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="D52" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="I52" s="22"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
       <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="22">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16">
+        <v>25</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="G54" s="16">
+        <f>E54*F54</f>
+        <v>9.25</v>
+      </c>
+      <c r="H54" s="16">
+        <f>G54*4.7*1.18</f>
+        <v>51.3005</v>
+      </c>
+      <c r="I54" s="65"/>
+      <c r="J54" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
         <f t="shared" ref="G55:G59" si="16">E55*F55</f>
         <v>0</v>
       </c>
-      <c r="H55" s="22">
-        <f t="shared" ref="H55:H59" si="17">1.18*G55</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="22"/>
+      <c r="H55" s="16">
+        <f t="shared" ref="H55:H58" si="17">G55*4.7*1.18</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="65"/>
       <c r="J55" s="30"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="22">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16">
+        <v>10</v>
+      </c>
+      <c r="F56" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="G56" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="22">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H56" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="22">
+        <v>97.609600000000015</v>
+      </c>
+      <c r="I56" s="65"/>
+      <c r="J56" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16">
+        <v>10</v>
+      </c>
+      <c r="F57" s="16">
+        <v>5.91</v>
+      </c>
+      <c r="G57" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="22">
+        <v>59.1</v>
+      </c>
+      <c r="H57" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="22">
+        <v>327.76860000000005</v>
+      </c>
+      <c r="I57" s="65"/>
+      <c r="J57" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16">
+        <v>10</v>
+      </c>
+      <c r="F58" s="16">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G58" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="22">
+        <v>44.400000000000006</v>
+      </c>
+      <c r="H58" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="23"/>
+        <v>246.24240000000003</v>
+      </c>
+      <c r="I58" s="65"/>
+      <c r="J58" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="22">
+      <c r="E59" s="16">
+        <v>50</v>
+      </c>
+      <c r="F59" s="16">
+        <v>0.224</v>
+      </c>
+      <c r="G59" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="22">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="30"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="H59" s="16">
+        <f>G59*4.7*1.18</f>
+        <v>62.115200000000009</v>
+      </c>
+      <c r="I59" s="66"/>
+      <c r="J59" s="29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16">
+        <v>50</v>
+      </c>
+      <c r="F60" s="16">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G60" s="16">
+        <f>E60*F60</f>
+        <v>19.400000000000002</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" ref="H60:H63" si="18">G60*4.7*1.18</f>
+        <v>107.5924</v>
+      </c>
+      <c r="I60" s="66"/>
+      <c r="J60" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="16">
+        <v>25</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="G61" s="16">
+        <f>E61*F61</f>
+        <v>19.324999999999999</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="18"/>
+        <v>107.17644999999999</v>
+      </c>
+      <c r="I61" s="66"/>
+      <c r="J61" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16">
+        <v>25</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G62" s="16">
+        <f>E62*F62</f>
+        <v>10.525</v>
+      </c>
+      <c r="H62" s="16">
+        <f t="shared" si="18"/>
+        <v>58.371649999999995</v>
+      </c>
+      <c r="I62" s="66"/>
+      <c r="J62" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="66"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="30"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="30"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="22">
+        <f t="shared" ref="G68:G72" si="19">E68*F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="22">
+        <f t="shared" ref="H68:H72" si="20">1.18*G68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="22"/>
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="30"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="30"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="30"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="22">
-        <f>SUM(H10:H29)</f>
-        <v>3089.2447199999997</v>
-      </c>
-      <c r="I60" s="22">
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="22">
+        <f>SUM(H10:H71)</f>
+        <v>4527.4877199999992</v>
+      </c>
+      <c r="I73" s="22">
         <v>5500</v>
       </c>
-      <c r="J60" s="30"/>
+      <c r="J73" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A73:G73"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A53:I53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J34" r:id="rId1"/>
@@ -2507,9 +2935,18 @@
     <hyperlink ref="J11" r:id="rId4"/>
     <hyperlink ref="J13" r:id="rId5"/>
     <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J41" r:id="rId7"/>
+    <hyperlink ref="J59" r:id="rId8"/>
+    <hyperlink ref="J60" r:id="rId9"/>
+    <hyperlink ref="J61" r:id="rId10"/>
+    <hyperlink ref="J62" r:id="rId11"/>
+    <hyperlink ref="J54" r:id="rId12"/>
+    <hyperlink ref="J56" r:id="rId13"/>
+    <hyperlink ref="J57" r:id="rId14"/>
+    <hyperlink ref="J58" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2661,15 +3098,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3051,15 +3488,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -3180,15 +3617,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3353,15 +3790,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3743,15 +4180,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -3872,15 +4309,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>

--- a/Project/BAP/Procurement/bütçe-update.xlsx
+++ b/Project/BAP/Procurement/bütçe-update.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="423">
   <si>
     <t>No</t>
   </si>
@@ -188,21 +188,12 @@
     <t>http://tr.farnell.com/texas-instruments/amc1100dub/amp-isolation-60khz-4-25kviso/dp/2144250</t>
   </si>
   <si>
-    <t>http://tr.farnell.com/texas-instruments/amc1200bdwv/ic-isolation-amp-60khz-soic-8/dp/2373533</t>
-  </si>
-  <si>
     <t>GS66508B</t>
   </si>
   <si>
     <t>https://www.gansystems.com/transistors.php</t>
   </si>
   <si>
-    <t>Evirici soğutucu</t>
-  </si>
-  <si>
-    <t>Tasarım</t>
-  </si>
-  <si>
     <t>Doğrultucu, DC bara giriş</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>Kapı sürücü</t>
   </si>
   <si>
-    <t>Motor</t>
-  </si>
-  <si>
     <t>Güç kaynağı</t>
   </si>
   <si>
@@ -251,51 +239,12 @@
     <t>B43630A9128</t>
   </si>
   <si>
-    <t>GaN EVM</t>
-  </si>
-  <si>
     <t>İzole kaynak 5V</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>MCU buffer</t>
-  </si>
-  <si>
-    <t>Sense direnci</t>
-  </si>
-  <si>
-    <t>Konektör</t>
-  </si>
-  <si>
     <t>6V üretici</t>
   </si>
   <si>
-    <t>Divider dirençleri</t>
-  </si>
-  <si>
-    <t>Flyback entegre</t>
-  </si>
-  <si>
-    <t>Flyback trafo</t>
-  </si>
-  <si>
-    <t>Transistör</t>
-  </si>
-  <si>
-    <t>Diyot</t>
-  </si>
-  <si>
-    <t>Kapasitör</t>
-  </si>
-  <si>
-    <t>MCU supply</t>
-  </si>
-  <si>
-    <t>MU haberleşme</t>
-  </si>
-  <si>
     <t>http://tr.farnell.com/epcos/b43630a9128m000/cap-alu-elec-1200uf-400v-snap/dp/2750326</t>
   </si>
   <si>
@@ -404,9 +353,6 @@
     <t>http://tr.farnell.com/cornell-dubilier/sek221m035st/aluminum-electrolytic-capacitor/dp/4854597</t>
   </si>
   <si>
-    <t>led</t>
-  </si>
-  <si>
     <t>5V supply linear</t>
   </si>
   <si>
@@ -416,9 +362,6 @@
     <t>http://tr.farnell.com/on-semiconductor/mc7805cd2tg/ic-linear-voltage-regulator-5v/dp/2148607</t>
   </si>
   <si>
-    <t>Adj supply</t>
-  </si>
-  <si>
     <t>5v 1a</t>
   </si>
   <si>
@@ -435,6 +378,924 @@
   </si>
   <si>
     <t>http://tr.farnell.com/texas-instruments/lm2596sx-5-0-nopb/step-down-voltage-regulator-to/dp/1496094</t>
+  </si>
+  <si>
+    <t>LM2596SX-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>TL2575-05IKTTR</t>
+  </si>
+  <si>
+    <t>LM2592HVSX-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>5v 5a</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm2678s-5-0-nopb/ic-dc-dc-converter-5a/dp/1469215</t>
+  </si>
+  <si>
+    <t>LM2678S-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>BLM18PG121SN1D </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/murata/blm18pg121sn1d/ferrite-bead-0603-0-05ohm-2a/dp/1515738</t>
+  </si>
+  <si>
+    <t>FB-0603</t>
+  </si>
+  <si>
+    <t>FB-0805</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/murata/blm21pg221sn1d/ferrite-bead-0805-0-045ohm-2a/dp/1515661</t>
+  </si>
+  <si>
+    <t>BLM21PG221SN1D</t>
+  </si>
+  <si>
+    <t>AMC1100</t>
+  </si>
+  <si>
+    <t>AMC1200</t>
+  </si>
+  <si>
+    <t>AMC1200SDUB </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/amc1200sdub/amp-isolation-60khz-8sop/dp/2064240</t>
+  </si>
+  <si>
+    <t>AMC1100DUB </t>
+  </si>
+  <si>
+    <t>AMC1301</t>
+  </si>
+  <si>
+    <t>AMC1301DWVR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/amc1301dwvr/isolation-amp-210khz-50uv-soic/dp/2617071</t>
+  </si>
+  <si>
+    <t>LED 0805 yeşil</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcl-s270gc/led-0805-green-10mcd-570nm/dp/1581242</t>
+  </si>
+  <si>
+    <t>MCL-S270GC</t>
+  </si>
+  <si>
+    <t>LED 0805 kırm</t>
+  </si>
+  <si>
+    <t>MCL-S270SRC</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcl-s270src/led-smd-0805-super-red/dp/1581239</t>
+  </si>
+  <si>
+    <t>MCL-S270YC</t>
+  </si>
+  <si>
+    <t>LED 0805 sarı</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcl-s270yc/led-smd-0805-yellow/dp/1581241</t>
+  </si>
+  <si>
+    <t>LED 0603 yeşil</t>
+  </si>
+  <si>
+    <t>LED 0603 kırm</t>
+  </si>
+  <si>
+    <t>LED 0603 sarı</t>
+  </si>
+  <si>
+    <t>KP-1608SURCK</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/kingbright/kp-1608surck/led-0603-230mcd-red/dp/2290329</t>
+  </si>
+  <si>
+    <t>KP-1608SYCK</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/kingbright/kp-1608syck/led-0603-150mcd-yellow/dp/2290330</t>
+  </si>
+  <si>
+    <t>KPG-1608SEKC-T</t>
+  </si>
+  <si>
+    <t>LED 0603 turuncu</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/kingbright/kpg-1608sekc-t/led-orange-200mcd-610nm/dp/1686058</t>
+  </si>
+  <si>
+    <t>KPG-1608PBC-A</t>
+  </si>
+  <si>
+    <t>LED 0603 mavi</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/kingbright/kpg-1608pbc-a/led-smd-0603-blu/dp/1686062RL</t>
+  </si>
+  <si>
+    <t>KP-1608VGC-A</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/kingbright/kp-1608vgc-a/led-smd-0603-green/dp/8529817</t>
+  </si>
+  <si>
+    <t>DALC208SC6 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/stmicroelectronics/dalc208sc6/diode-array-tvs-9v-smd-sot23-6l/dp/1467641</t>
+  </si>
+  <si>
+    <t>ESD array</t>
+  </si>
+  <si>
+    <t>ADUM3210BRZ </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/analog-devices/adum3210brz/digital-isolator-2ch-8soic/dp/1897131</t>
+  </si>
+  <si>
+    <t>ADUM3211TRZ </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/analog-devices/adum3211trz/digital-isolator-50ns-nsoic-8/dp/2462512</t>
+  </si>
+  <si>
+    <t>Digital isolator</t>
+  </si>
+  <si>
+    <t>3.3v supply</t>
+  </si>
+  <si>
+    <t>LM1117IMP-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm1117imp-3-3-nopb/ldo-1-2vdo-3-3v-1-0-8a-3sot223/dp/1469051</t>
+  </si>
+  <si>
+    <t>Buffer octal</t>
+  </si>
+  <si>
+    <t>SN74HCT541DW</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/sn74hct541dw/ic-octal-buffer-line-driver-smd/dp/9592059</t>
+  </si>
+  <si>
+    <t>dsp evm</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/tmdsdock28335/335-experimenter-kit/dp/1748914</t>
+  </si>
+  <si>
+    <t>TMDSDOCK28335 </t>
+  </si>
+  <si>
+    <t>N5V supply</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/tps60402dbvt/charge-pump-inverter-smd-60402/dp/8457778</t>
+  </si>
+  <si>
+    <t>TPS60402DBVT </t>
+  </si>
+  <si>
+    <t>2.5V ref</t>
+  </si>
+  <si>
+    <t>LM4132CMF-2.5</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm4132c2-5/voltage-ref-series-2-5v-sot-23/dp/1312757</t>
+  </si>
+  <si>
+    <t>3.3V supply</t>
+  </si>
+  <si>
+    <t>LM3940IMP-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm3940imp-3-3-nopb/ic-v-reg-linear-3-3v-smd/dp/1469104</t>
+  </si>
+  <si>
+    <t>B3F-3152</t>
+  </si>
+  <si>
+    <t>Tactile switch</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/omron-electronic-components/b3f-3152/switch-tactile-spst-no/dp/1608278</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>MCEMR-03-T</t>
+  </si>
+  <si>
+    <t>Reserrable fuse</t>
+  </si>
+  <si>
+    <t>MF-MSMF050-2</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcemr-03-t/switch-dil-3way-spst-recessed/dp/1524006</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/bourns/msmf050-2/fuse-ptc-reset-15v-0-5a-smd/dp/9350314</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>ABLS2-12.000MHZ-D4Y-T</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/abracon/abls2-12-000mhz-d4y-t/crystal-12mhz-18pf-smd/dp/2101325</t>
+  </si>
+  <si>
+    <t>Jumper head</t>
+  </si>
+  <si>
+    <t>969102-0000-DA</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/3m/969102-0000-da/shunt-bar-2pos-2-54mm/dp/2579814</t>
+  </si>
+  <si>
+    <t>897-43-005-00-100001</t>
+  </si>
+  <si>
+    <t>Mini USB</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/mill-max/897-43-005-00-100001/mini-usb-2-0-type-b-receptacle/dp/1925220</t>
+  </si>
+  <si>
+    <t>0 ohm 0.25W res</t>
+  </si>
+  <si>
+    <t>MC1206S4F0000T5E </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc1206s4f0000t5e/res-thick-film-0r-0-25w-1206/dp/1632520</t>
+  </si>
+  <si>
+    <t>LQH3NPN1R0NJ0L </t>
+  </si>
+  <si>
+    <t>Inductor 1u, 1.65A</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/murata/lqh3npn1r0nj0l/inductor-power-1-0uh-30/dp/2219255</t>
+  </si>
+  <si>
+    <t>Serial EEPROM</t>
+  </si>
+  <si>
+    <t>93LC56BT-I/OT</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/microchip/93lc56bt-i-ot/serial-eeprom-2kbit-2mhz-sot-23/dp/1556165</t>
+  </si>
+  <si>
+    <t>Sepic 5V</t>
+  </si>
+  <si>
+    <t>LMR62421XMFE/NOPB </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lmr62421xmfe-nopb/dc-dc-conv-boost-1-6mhz-sot-23/dp/2323513</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>SN74LVC2G07DBVR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/sn74lvc2g07dbvr/ic-buffer-driver-receiver-smd/dp/1470774</t>
+  </si>
+  <si>
+    <t>DC/DC low voltage</t>
+  </si>
+  <si>
+    <t>TPS62080ADSGT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/tps62080adsgt/buck-synch-2-3v-6vin-1-2a-adj/dp/2099927</t>
+  </si>
+  <si>
+    <t>TPS62162DSGT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/tps62162dsgt/dc-dc-converter-buck-2-25mhz-wson/dp/2323561</t>
+  </si>
+  <si>
+    <t>opamp</t>
+  </si>
+  <si>
+    <t>OPA320AIDBVT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/opa320aidbvt/op-amp-cmos-20mhz-5sot23/dp/2057093</t>
+  </si>
+  <si>
+    <t>voltage level</t>
+  </si>
+  <si>
+    <t>TXB0106PWR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/txb0106pwr/ic-transceiver-vlt-16tssop/dp/1694679</t>
+  </si>
+  <si>
+    <t>voltage ref</t>
+  </si>
+  <si>
+    <t>REF3030AIDBZR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/ref3030aidbzr/voltage-ref-series-3v-sot-23/dp/2764648</t>
+  </si>
+  <si>
+    <t>LM358PSR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/lm358psr/ic-op-amp-700khz-0-3v-us-soic/dp/2342291</t>
+  </si>
+  <si>
+    <t>TLV272IDR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/tlv272idr/op-amp-3mhz-2-4v-us-soic-8/dp/1575652</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/microchip/mcp6l02t-e-sn/ic-op-amp-dual-1-8v-1mhz-8soic/dp/1715882</t>
+  </si>
+  <si>
+    <t>MCP6L02T-E/SN</t>
+  </si>
+  <si>
+    <t>CRE1S0505SC </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/murata-power-solutions/cre1s0505sc/dc-dc-converter-5v-0-2a/dp/2564440</t>
+  </si>
+  <si>
+    <t>1n4148 diyot</t>
+  </si>
+  <si>
+    <t>1N4148WS</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/1n4148ws/diode-h-speed-100v-0-15a-sod323/dp/1466524</t>
+  </si>
+  <si>
+    <t>1N4148W-7-F</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/diodes-inc/1n4148w-7-f/diode-switch-300ma-100v-sod123/dp/1776392</t>
+  </si>
+  <si>
+    <t>5v1 zener</t>
+  </si>
+  <si>
+    <t>1N751A </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/1n751a/diode-zener-0-5w-5-1v-do-35/dp/1861484</t>
+  </si>
+  <si>
+    <t>MMSZ5231B </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/mmsz5231b/diode-zener-5-1v-smd-sod-123/dp/1467602</t>
+  </si>
+  <si>
+    <t>bav99</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/bav99lt3g/switching-diode-100v-0-215a-sot/dp/2533389</t>
+  </si>
+  <si>
+    <t>BAV99LT3G</t>
+  </si>
+  <si>
+    <t>res 110k 200v</t>
+  </si>
+  <si>
+    <t>MCWR12X1103FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr12x1103ftl/res-thick-film-110kohm-1-0-25w/dp/2447458</t>
+  </si>
+  <si>
+    <t>MCWR12X3303FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr12x3303ftl/res-thick-film-330k-1-0-25w-1206/dp/2447503</t>
+  </si>
+  <si>
+    <t>res 330k 200v</t>
+  </si>
+  <si>
+    <t>WCR1206-220KFI</t>
+  </si>
+  <si>
+    <t>res 220k 200v</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/welwyn/wcr1206-220kfi/res-thick-film-220k-1-0-25w-1206/dp/1100253</t>
+  </si>
+  <si>
+    <t>Rsense 0.005</t>
+  </si>
+  <si>
+    <t>CRF0805-FZ-R005ELF</t>
+  </si>
+  <si>
+    <t>tr.farnell.com/bourns/crf0805-fz-r005elf/current-sense-res-aec-q200-0r005/dp/2729138</t>
+  </si>
+  <si>
+    <t>CRF0805-FZ-R010ELF</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/bourns/crf0805-fx-r010elf/resistor-current-sense-0-01-ohm/dp/2372977</t>
+  </si>
+  <si>
+    <t>TLM2AER015FTE</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/te-connectivity/tlm2aer015fte/resistor-current-sense-0r015-1/dp/2483509</t>
+  </si>
+  <si>
+    <t>Rsense 0.015</t>
+  </si>
+  <si>
+    <t>Rsense 0.010</t>
+  </si>
+  <si>
+    <t>Diode SMA</t>
+  </si>
+  <si>
+    <t>SS24A+</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/ss24a/schottky-rect-single-40v-2a-do/dp/2748189</t>
+  </si>
+  <si>
+    <t>SS34+</t>
+  </si>
+  <si>
+    <t>Diode SMC</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/ss34/schottky-rectifier-3a-40v-do-214ab/dp/2675144</t>
+  </si>
+  <si>
+    <t>NRVBS2040LT3G </t>
+  </si>
+  <si>
+    <t>Diode SMB</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/nrvbs2040lt3g/schottky-rect-auto-40v-2a-do214aa/dp/2728009</t>
+  </si>
+  <si>
+    <t>MC0603B102K250CT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc0603b102k250ct/cap-mlcc-x7r-1000pf-25v-0603/dp/2627426</t>
+  </si>
+  <si>
+    <t>Cap 1nF 0603 25V</t>
+  </si>
+  <si>
+    <t>MCU0603R103KCT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcu0603r103kct/cap-mlcc-x7r-10nf-50v-0603/dp/9406182</t>
+  </si>
+  <si>
+    <t>Cap 10nF 0603 50V</t>
+  </si>
+  <si>
+    <t>Cap 100nF 0603 25V</t>
+  </si>
+  <si>
+    <t>MCT0603F104ZCT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mct0603f104zct/cap-mlcc-y5v-100nf-25v-0603/dp/9406204</t>
+  </si>
+  <si>
+    <t>Cap 1uF 0603 25V</t>
+  </si>
+  <si>
+    <t>MC0603F105Z250CT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc0603f105z250ct/cap-mlcc-y5v-1uf-25v-0603/dp/1759039</t>
+  </si>
+  <si>
+    <t>MC0805F105Z250CT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc0805f105z250ct/cap-mlcc-y5v-1uf-0805/dp/1759429</t>
+  </si>
+  <si>
+    <t>Cap 1uF 0805 25V</t>
+  </si>
+  <si>
+    <t>Cap 100nF 0805 25V</t>
+  </si>
+  <si>
+    <t>MC0805B104K250CT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mc0805b104k250ct/cap-mlcc-x7r-100nf-25v-0805/dp/1759166RL</t>
+  </si>
+  <si>
+    <t>Cap 1nF 0805 25V</t>
+  </si>
+  <si>
+    <t>Cap 10nF 0805 25V</t>
+  </si>
+  <si>
+    <t>MCSH21B102K250CT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcsh21b102k250ct/cap-mlcc-x7r-1nf-25v-0805/dp/1856454</t>
+  </si>
+  <si>
+    <t>MCSH21B103K250CT </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcsh21b103k250ct/cap-mlcc-x7r-10nf-25v-0805/dp/1856461</t>
+  </si>
+  <si>
+    <t>MCVVT025M100CA1L </t>
+  </si>
+  <si>
+    <t>Cap 10uF 25V</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcvvt025m100ca1l/cap-alu-elec-10uf-25v-rad-can/dp/2611368</t>
+  </si>
+  <si>
+    <t>Cap 100uF 16V</t>
+  </si>
+  <si>
+    <t>MCVKZ016M100CA1L </t>
+  </si>
+  <si>
+    <t>Cap 10uF 16V</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcvkz016m100ca1l/cap-alu-elec-10uf-16v-rad-can/dp/2611330</t>
+  </si>
+  <si>
+    <t>MCVVT016M101EA1L </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcvvt016m101ea1l/cap-alu-elec-100uf-16v-rad-can/dp/2611356</t>
+  </si>
+  <si>
+    <t>MCVVT025M101EA6L </t>
+  </si>
+  <si>
+    <t>Cap 100uF 25V</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcvvt025m101ea6l/cap-alu-elec-100uf-25v-rad-can/dp/2611370</t>
+  </si>
+  <si>
+    <t>MCVVT035M101EA6L </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcvvt035m101ea6l/cap-alu-elec-100uf-35v-rad-can/dp/2611381</t>
+  </si>
+  <si>
+    <t>Cap 100uF 35V</t>
+  </si>
+  <si>
+    <t>MCWR06X1001FTL </t>
+  </si>
+  <si>
+    <t>Res 1K 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06x1001ftl/res-thick-film-1k-1-0-1w-0603/dp/2447272</t>
+  </si>
+  <si>
+    <t>MCWR06X10R0FTL </t>
+  </si>
+  <si>
+    <t>Res 10R 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06x10r0ftl/res-thick-film-10r-1-0-1w-0603/dp/2447233</t>
+  </si>
+  <si>
+    <t>MCWR06X1004FTL </t>
+  </si>
+  <si>
+    <t>Res 1M 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06x1004ftl/res-thick-film-1m-1-0-1w-0603/dp/2447285</t>
+  </si>
+  <si>
+    <t>MCWR06W1R00FTL </t>
+  </si>
+  <si>
+    <t>Res 1R 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06w1r00ftl/res-thick-film-1r-1-0-1w-0603/dp/2447289</t>
+  </si>
+  <si>
+    <t>MCWR06X1003FTL </t>
+  </si>
+  <si>
+    <t>Res 100K 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06x1003ftl/res-thick-film-100k-1-0-1w-0603/dp/2447226</t>
+  </si>
+  <si>
+    <t>MCWR06X1002FTL </t>
+  </si>
+  <si>
+    <t>Res 10K 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06x1002ftl/res-thick-film-10k-1-0-1w-0603/dp/2447230</t>
+  </si>
+  <si>
+    <t>MCWR06X1000FTL </t>
+  </si>
+  <si>
+    <t>Res 100R 0603</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr06x1000ftl/res-thick-film-100r-1-0-1w-0603/dp/2447227</t>
+  </si>
+  <si>
+    <t>Res 100R 0805</t>
+  </si>
+  <si>
+    <t>Res 10K 0805</t>
+  </si>
+  <si>
+    <t>Res 100K 0805</t>
+  </si>
+  <si>
+    <t>Res 1R 0805</t>
+  </si>
+  <si>
+    <t>Res 1M 0805</t>
+  </si>
+  <si>
+    <t>Res 10R 0805</t>
+  </si>
+  <si>
+    <t>Res 1K 0805</t>
+  </si>
+  <si>
+    <t>MCWR08X10R0FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08x10r0ftl/res-thick-film-10r-1-0-125w-0805/dp/2447556</t>
+  </si>
+  <si>
+    <t>MCWR08X1000FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08x1000ftl/res-thick-film-100r-1-0-125w-0805/dp/2447552</t>
+  </si>
+  <si>
+    <t>MCWR08X1001FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08x1001ftl/res-thick-film-1k-1-0-125w-0805/dp/2447587</t>
+  </si>
+  <si>
+    <t>MCWR08X1003FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08x1003ftl/res-thick-film-100k-1-0-125w-0805/dp/2447551</t>
+  </si>
+  <si>
+    <t>MCWR08X1004FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08x1004ftl/res-thick-film-1m-1-0-125w-0805/dp/2447596</t>
+  </si>
+  <si>
+    <t>MCWR08X1002FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08x1002ftl/res-thick-film-10k-1-0-125w-0805/dp/2447553</t>
+  </si>
+  <si>
+    <t>MCWR08W1R00FTL </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mcwr08w1r00ftl/res-thick-film-1r-1-0-125w-0805/dp/2447598</t>
+  </si>
+  <si>
+    <t>CPH3216-TL-E</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/cph3216-tl-e/transistor-npn-50v-1a-sot-23/dp/2724354</t>
+  </si>
+  <si>
+    <t>BJT NPN 1A</t>
+  </si>
+  <si>
+    <t>BJT NPN 100mA</t>
+  </si>
+  <si>
+    <t>MMBT5210 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/mmbt5210/transistor-bipol-npn-50v-sot-23/dp/2454025</t>
+  </si>
+  <si>
+    <t>BJT NPN 500mA</t>
+  </si>
+  <si>
+    <t>50C02CH-TL-E</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/50c02ch-tl-e/transistor-npn-50v-0-5a-sot-23/dp/2727939</t>
+  </si>
+  <si>
+    <t>MOSFET 500mA</t>
+  </si>
+  <si>
+    <t>MOSFET 1A</t>
+  </si>
+  <si>
+    <t>MMBF170LT1G </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/mmbf170lt1g/mosfet-n-60v-sot-23/dp/1431321</t>
+  </si>
+  <si>
+    <t>ZXMN6A07FTA </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/diodes-inc/zxmn6a07fta/mosfet-n-sot-23/dp/9525769</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/mmsz5242b-7-f/diode-zener-12v-500mw-sod-123/dp/2306184</t>
+  </si>
+  <si>
+    <t>MMSZ5242B-7-F</t>
+  </si>
+  <si>
+    <t>Zener 12V</t>
+  </si>
+  <si>
+    <t>BC846BLT1G</t>
+  </si>
+  <si>
+    <t>BJT</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/bc846blt1g/transistor-npn-65v-0-1a-sot23/dp/1653605</t>
+  </si>
+  <si>
+    <t>Inductor 20!, 1.4uH</t>
+  </si>
+  <si>
+    <t>MLC1565-142MLC</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/coilcraft/mlc1565-142mlc/inductor-pwr-1-4uh-19-9a-20-77mhz/dp/2287975</t>
+  </si>
+  <si>
+    <t>Cap 270uF, 35V</t>
+  </si>
+  <si>
+    <t>EEHZA1V271P</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/panasonic-electronic-components/eehza1v271p/cap-alu-elec-270uf-35v-smd/dp/2095317</t>
+  </si>
+  <si>
+    <t>Voltage ref shunt</t>
+  </si>
+  <si>
+    <t>TL431AIDBZR </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/nxp/tl431aidbzr/voltage-ref-shunt-2-495v-36v-sot/dp/2095465</t>
+  </si>
+  <si>
+    <t>Current mode pwm IC</t>
+  </si>
+  <si>
+    <t>UCC3813D-3</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/texas-instruments/ucc3813d-3/current-mode-pwm-smd-soic8-3813/dp/1212349</t>
+  </si>
+  <si>
+    <t>2N2222A </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/multicomp/2n2222a/transistor-npn-40v-800ma-to-18/dp/9207120</t>
+  </si>
+  <si>
+    <t>2N2222 BJT</t>
+  </si>
+  <si>
+    <t>FOD817ASD </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/fod817asd/opto-cplr-phototrans-5kv-smd/dp/2322515</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>Optocoupler</t>
+  </si>
+  <si>
+    <t>STD16N65M5 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/stmicroelectronics/std16n65m5/mosfet-n-ch-650v-12a-dpak/dp/2098162</t>
+  </si>
+  <si>
+    <t>Small signal diode</t>
+  </si>
+  <si>
+    <t>BAT41 </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/stmicroelectronics/bat41/diode-schottky-small-signal/dp/9801421</t>
+  </si>
+  <si>
+    <t>Bridge rectifier</t>
+  </si>
+  <si>
+    <t>GBU6J </t>
+  </si>
+  <si>
+    <t>Small signal schottky</t>
+  </si>
+  <si>
+    <t>DB2S30800L </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/panasonic-electronic-components/db2s30800l/diode-schottky-30v-ssmini2-f5/dp/2284950</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/on-semiconductor/gbu6j/bridge-rectifier-6a-600v-gbu/dp/1700160</t>
+  </si>
+  <si>
+    <t>47uF, 400V</t>
+  </si>
+  <si>
+    <t>EEU-ED2G470S</t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/panasonic-electronic-components/eeued2g470s/cap-alu-elec-47uf-400v-rad/dp/1539446</t>
+  </si>
+  <si>
+    <t>39uF, 35V</t>
+  </si>
+  <si>
+    <t>35SVPF39M </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/panasonic-electronic-components/35svpf39m/cap-alu-elec-39uf-35v-smd/dp/2354808</t>
+  </si>
+  <si>
+    <t>1uF, 450V</t>
+  </si>
+  <si>
+    <t>C5750X7T2W105M250KE </t>
+  </si>
+  <si>
+    <t>http://tr.farnell.com/tdk/c5750x7t2w105m250ke/capacitor-mlcc-x7t-1uf-450v-2220/dp/2526306</t>
   </si>
 </sst>
 </file>
@@ -604,9 +1465,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -617,9 +1476,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -631,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,7 +1527,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,9 +1545,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -701,19 +1554,7 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
@@ -741,8 +1582,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,12 +1618,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -792,26 +1636,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,51 +1960,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="102.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -1149,7 +2015,7 @@
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="16"/>
@@ -1159,19 +2025,19 @@
       <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>2625</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <f>E2*F2</f>
         <v>2625</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <f>1.18*G2</f>
         <v>3097.5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1179,7 +2045,7 @@
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="16"/>
@@ -1189,58 +2055,58 @@
       <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>2875</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f t="shared" ref="G3" si="0">E3*F3</f>
         <v>2875</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f t="shared" ref="H3" si="1">1.18*G3</f>
         <v>3392.5</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="22">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="21">
         <f>SUM(H2:H3)</f>
         <v>6490</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="55">
         <v>6500</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="16"/>
@@ -1250,19 +2116,19 @@
       <c r="E6" s="17">
         <v>2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>1900</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <f>E6*F6</f>
         <v>3800</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f>1.18*G6</f>
         <v>4484</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1270,7 +2136,7 @@
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="16"/>
@@ -1280,71 +2146,72 @@
       <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>850</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f t="shared" ref="G7" si="2">E7*F7</f>
         <v>1700</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <f>1.18*G7</f>
         <v>2006</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="22">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="21">
         <f>SUM(H6:H7)</f>
         <v>6490</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="55">
         <v>6500</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="24"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="A10" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1356,19 +2223,19 @@
       <c r="E11" s="17">
         <v>2</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>12.7</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f>E11*F11*4.8</f>
         <v>121.91999999999999</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <f>1.18*G11</f>
         <v>143.86559999999997</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="66" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1376,7 +2243,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="17"/>
@@ -1386,31 +2253,31 @@
       <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>19.190000000000001</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <f t="shared" ref="G12:G14" si="3">E12*F12*4.8</f>
         <v>460.56</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" ref="H12:H15" si="4">1.18*G12</f>
         <v>543.46079999999995</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="43" t="s">
-        <v>93</v>
+      <c r="I12" s="60"/>
+      <c r="J12" s="67" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>43</v>
@@ -1421,28 +2288,28 @@
       <c r="F13" s="17">
         <v>5.96</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f t="shared" si="3"/>
         <v>57.216000000000001</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="4"/>
         <v>67.514879999999991</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="29" t="s">
-        <v>65</v>
+      <c r="I13" s="60"/>
+      <c r="J13" s="66" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>72</v>
+      <c r="B14" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>43</v>
@@ -1450,31 +2317,31 @@
       <c r="E14" s="17">
         <v>10</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>10.91</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <f t="shared" si="3"/>
         <v>523.67999999999995</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="4"/>
         <v>617.94239999999991</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="29" t="s">
-        <v>89</v>
+      <c r="I14" s="55"/>
+      <c r="J14" s="66" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>90</v>
+      <c r="B15" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>43</v>
@@ -1482,79 +2349,79 @@
       <c r="E15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>13.95</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <f>E15*F15*4.8</f>
         <v>66.959999999999994</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <f t="shared" si="4"/>
         <v>79.012799999999984</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="29" t="s">
-        <v>92</v>
+      <c r="I15" s="55"/>
+      <c r="J15" s="66" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="29"/>
+      <c r="A16" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>94</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>65</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <f>E17*F17*4.8</f>
         <v>0</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f>1.18*G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="29" t="s">
-        <v>55</v>
+      <c r="J17" s="66" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>43</v>
@@ -1562,33 +2429,33 @@
       <c r="E18" s="17">
         <v>16</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>2.76</v>
       </c>
-      <c r="G18" s="22">
-        <f t="shared" ref="G18:G23" si="5">E18*F18*4.8</f>
+      <c r="G18" s="21">
+        <f t="shared" ref="G18:G20" si="5">E18*F18*4.8</f>
         <v>211.96799999999999</v>
       </c>
-      <c r="H18" s="22">
-        <f t="shared" ref="H18:H23" si="6">1.18*G18</f>
+      <c r="H18" s="21">
+        <f t="shared" ref="H18:H21" si="6">1.18*G18</f>
         <v>250.12223999999998</v>
       </c>
-      <c r="I18" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>95</v>
+      <c r="I18" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>43</v>
@@ -1596,33 +2463,33 @@
       <c r="E19" s="17">
         <v>10</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>6.16</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <f t="shared" si="5"/>
         <v>295.68</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <f t="shared" si="6"/>
         <v>348.9024</v>
       </c>
-      <c r="I19" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>97</v>
+      <c r="I19" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>43</v>
@@ -1630,33 +2497,33 @@
       <c r="E20" s="17">
         <v>5</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>13.23</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <f t="shared" si="5"/>
         <v>317.52000000000004</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="6"/>
         <v>374.67360000000002</v>
       </c>
-      <c r="I20" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>99</v>
+      <c r="I20" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>43</v>
@@ -1664,468 +2531,541 @@
       <c r="E21" s="17">
         <v>0</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>18.02</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <f t="shared" ref="G21" si="7">E21*F21*4.8</f>
         <v>0</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="17">
+        <v>5</v>
+      </c>
+      <c r="F23" s="21">
+        <v>4.25</v>
+      </c>
+      <c r="G23" s="21">
+        <f>E23*F23*4.8</f>
         <v>102</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="31"/>
+      <c r="H23" s="21">
+        <f>1.18*G23</f>
+        <v>120.36</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="17">
+        <v>5</v>
+      </c>
+      <c r="F24" s="21">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" ref="G24:G37" si="8">E24*F24*4.8</f>
+        <v>109.43999999999998</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" ref="H24:H37" si="9">1.18*G24</f>
+        <v>129.13919999999996</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="66" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>28</v>
+      <c r="B25" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
-        <f>E25*F25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <f>1.18*G25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F25" s="21">
+        <v>5.36</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="8"/>
+        <v>771.84</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="9"/>
+        <v>910.77120000000002</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>76</v>
+      <c r="B26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="17">
-        <v>20</v>
-      </c>
-      <c r="F26" s="22">
-        <v>22.5</v>
-      </c>
-      <c r="G26" s="22">
-        <f>E26*F26</f>
-        <v>450</v>
-      </c>
-      <c r="H26" s="22">
-        <f>1.18*G26</f>
-        <v>531</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="29" t="s">
-        <v>53</v>
+      <c r="E26" s="16">
+        <v>50</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2.11</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="8"/>
+        <v>506.4</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="9"/>
+        <v>597.55199999999991</v>
+      </c>
+      <c r="I26" s="63"/>
+      <c r="J26" s="68" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>75</v>
+      <c r="B27" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" ref="G27:G30" si="8">E27*F27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
-        <f t="shared" ref="H27:H30" si="9">1.18*G27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="31"/>
+        <v>4.41E-2</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="8"/>
+        <v>21.167999999999999</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="9"/>
+        <v>24.97824</v>
+      </c>
+      <c r="I27" s="63"/>
+      <c r="J27" s="68" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>76</v>
+      <c r="B28" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="17">
-        <v>5</v>
-      </c>
-      <c r="F28" s="22">
-        <v>22.5</v>
-      </c>
-      <c r="G28" s="22">
+      <c r="E28" s="16">
+        <v>100</v>
+      </c>
+      <c r="F28" s="16">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>112.5</v>
-      </c>
-      <c r="H28" s="22">
+        <v>33.552</v>
+      </c>
+      <c r="H28" s="21">
         <f t="shared" si="9"/>
-        <v>132.75</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="31"/>
+        <v>39.591359999999995</v>
+      </c>
+      <c r="I28" s="63"/>
+      <c r="J28" s="68" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>78</v>
+      <c r="B29" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
+        <v>1.29E-2</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
+        <v>6.1920000000000002</v>
+      </c>
+      <c r="H29" s="21">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="31"/>
+        <v>7.3065600000000002</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>81</v>
+      <c r="B30" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
+        <v>4.5120000000000005</v>
+      </c>
+      <c r="H30" s="21">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="18"/>
+        <v>5.32416</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="68" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
+      <c r="B31" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="17">
+        <v>100</v>
+      </c>
+      <c r="F31" s="21">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="8"/>
+        <v>17.135999999999999</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="9"/>
+        <v>20.220479999999998</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="J31" s="68" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="17">
+        <v>100</v>
+      </c>
+      <c r="F32" s="21">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="8"/>
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" si="9"/>
+        <v>3.9081599999999996</v>
+      </c>
+      <c r="I32" s="63"/>
+      <c r="J32" s="68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="17"/>
+      <c r="B33" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="D33" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <f>E33*F33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <f>1.18*G33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F33" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="8"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" si="9"/>
+        <v>3.9648000000000003</v>
+      </c>
+      <c r="I33" s="63"/>
+      <c r="J33" s="68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="17"/>
+      <c r="B34" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="D34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <f t="shared" ref="G34:G37" si="10">E34*F34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
-        <f t="shared" ref="H34:H37" si="11">1.18*G34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="29" t="s">
-        <v>52</v>
+        <v>100</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="8"/>
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="9"/>
+        <v>5.7206399999999995</v>
+      </c>
+      <c r="I34" s="63"/>
+      <c r="J34" s="68" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="16"/>
+      <c r="B35" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="D35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="18"/>
+      <c r="E35" s="17">
+        <v>50</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="8"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="9"/>
+        <v>66.268799999999999</v>
+      </c>
+      <c r="I35" s="63"/>
+      <c r="J35" s="68" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="16"/>
+      <c r="B36" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="D36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="18"/>
+      <c r="E36" s="17">
+        <v>50</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="8"/>
+        <v>65.28</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="9"/>
+        <v>77.0304</v>
+      </c>
+      <c r="I36" s="63"/>
+      <c r="J36" s="68" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="16"/>
+      <c r="B37" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="16">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="18"/>
+      <c r="E37" s="17">
+        <v>50</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="8"/>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="9"/>
+        <v>154.34399999999999</v>
+      </c>
+      <c r="I37" s="63"/>
+      <c r="J37" s="68" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="65"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>108</v>
+      <c r="B39" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>43</v>
@@ -2133,820 +3073,3340 @@
       <c r="E39" s="17">
         <v>50</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="G39" s="21">
+        <f>E39*F39*4.8</f>
+        <v>38.4</v>
+      </c>
+      <c r="H39" s="21">
+        <f>1.18*G39</f>
+        <v>45.311999999999998</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="17">
+        <v>10</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2.48</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" ref="G40:G66" si="10">E40*F40*4.8</f>
+        <v>119.03999999999999</v>
+      </c>
+      <c r="H40" s="21">
+        <f t="shared" ref="H40:H66" si="11">1.18*G40</f>
+        <v>140.46719999999999</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="17">
+        <v>10</v>
+      </c>
+      <c r="F41" s="21">
+        <v>2.88</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="10"/>
+        <v>138.23999999999998</v>
+      </c>
+      <c r="H41" s="21">
+        <f t="shared" si="11"/>
+        <v>163.12319999999997</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="17">
+        <v>10</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" si="10"/>
+        <v>43.536000000000001</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" si="11"/>
+        <v>51.372479999999996</v>
+      </c>
+      <c r="I42" s="55"/>
+      <c r="J42" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="17">
+        <v>50</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" si="10"/>
+        <v>70.559999999999988</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" si="11"/>
+        <v>83.260799999999975</v>
+      </c>
+      <c r="I43" s="55"/>
+      <c r="J43" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="17">
+        <v>5</v>
+      </c>
+      <c r="F44" s="21">
+        <v>1.37</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="10"/>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="11"/>
+        <v>38.798400000000001</v>
+      </c>
+      <c r="I44" s="55"/>
+      <c r="J44" s="66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2</v>
+      </c>
+      <c r="F45" s="21">
+        <v>2.13</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="10"/>
+        <v>20.447999999999997</v>
+      </c>
+      <c r="H45" s="21">
+        <f t="shared" si="11"/>
+        <v>24.128639999999994</v>
+      </c>
+      <c r="I45" s="55"/>
+      <c r="J45" s="66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="17">
+        <v>10</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" si="10"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="H46" s="21">
+        <f t="shared" si="11"/>
+        <v>67.967999999999989</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="17">
+        <v>10</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="10"/>
+        <v>13.007999999999999</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" si="11"/>
+        <v>15.349439999999998</v>
+      </c>
+      <c r="I47" s="55"/>
+      <c r="J47" s="66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="17">
+        <v>2</v>
+      </c>
+      <c r="F48" s="21">
+        <v>1.32</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="10"/>
+        <v>12.672000000000001</v>
+      </c>
+      <c r="H48" s="21">
+        <f t="shared" si="11"/>
+        <v>14.952959999999999</v>
+      </c>
+      <c r="I48" s="55"/>
+      <c r="J48" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="17">
+        <v>10</v>
+      </c>
+      <c r="F49" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" si="10"/>
+        <v>8.16</v>
+      </c>
+      <c r="H49" s="21">
+        <f t="shared" si="11"/>
+        <v>9.6288</v>
+      </c>
+      <c r="I49" s="55"/>
+      <c r="J49" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="17">
+        <v>5</v>
+      </c>
+      <c r="F50" s="21">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" si="10"/>
+        <v>8.76</v>
+      </c>
+      <c r="H50" s="21">
+        <f t="shared" si="11"/>
+        <v>10.336799999999998</v>
+      </c>
+      <c r="I50" s="55"/>
+      <c r="J50" s="66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="17">
+        <v>50</v>
+      </c>
+      <c r="F51" s="21">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" si="10"/>
+        <v>10.703999999999999</v>
+      </c>
+      <c r="H51" s="21">
+        <f t="shared" si="11"/>
+        <v>12.630719999999998</v>
+      </c>
+      <c r="I51" s="55"/>
+      <c r="J51" s="66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="17">
+        <v>2</v>
+      </c>
+      <c r="F52" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" si="10"/>
+        <v>9.5039999999999996</v>
+      </c>
+      <c r="H52" s="21">
+        <f t="shared" si="11"/>
+        <v>11.214719999999998</v>
+      </c>
+      <c r="I52" s="55"/>
+      <c r="J52" s="66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="17">
+        <v>100</v>
+      </c>
+      <c r="F53" s="21">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="G53" s="21">
+        <f t="shared" si="10"/>
+        <v>12.192</v>
+      </c>
+      <c r="H53" s="21">
+        <f t="shared" si="11"/>
+        <v>14.386559999999999</v>
+      </c>
+      <c r="I53" s="55"/>
+      <c r="J53" s="66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="17">
+        <v>10</v>
+      </c>
+      <c r="F54" s="21">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G54" s="21">
+        <f t="shared" si="10"/>
+        <v>19.584</v>
+      </c>
+      <c r="H54" s="21">
+        <f t="shared" si="11"/>
+        <v>23.109119999999997</v>
+      </c>
+      <c r="I54" s="55"/>
+      <c r="J54" s="66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="17">
+        <v>5</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0.219</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="10"/>
+        <v>5.2559999999999993</v>
+      </c>
+      <c r="H55" s="21">
+        <f t="shared" si="11"/>
+        <v>6.2020799999999987</v>
+      </c>
+      <c r="I55" s="55"/>
+      <c r="J55" s="66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="17">
+        <v>2</v>
+      </c>
+      <c r="F56" s="21">
+        <v>2.89</v>
+      </c>
+      <c r="G56" s="21">
+        <f t="shared" si="10"/>
+        <v>27.744</v>
+      </c>
+      <c r="H56" s="21">
+        <f t="shared" si="11"/>
+        <v>32.737919999999995</v>
+      </c>
+      <c r="I56" s="55"/>
+      <c r="J56" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="17">
+        <v>10</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G57" s="21">
+        <f t="shared" si="10"/>
+        <v>20.447999999999997</v>
+      </c>
+      <c r="H57" s="21">
+        <f t="shared" si="11"/>
+        <v>24.128639999999994</v>
+      </c>
+      <c r="I57" s="55"/>
+      <c r="J57" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="17">
+        <v>5</v>
+      </c>
+      <c r="F58" s="21">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G58" s="21">
+        <f t="shared" si="10"/>
+        <v>52.32</v>
+      </c>
+      <c r="H58" s="21">
+        <f t="shared" si="11"/>
+        <v>61.7376</v>
+      </c>
+      <c r="I58" s="55"/>
+      <c r="J58" s="66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="17">
+        <v>5</v>
+      </c>
+      <c r="F59" s="21">
+        <v>2.66</v>
+      </c>
+      <c r="G59" s="21">
+        <f t="shared" si="10"/>
+        <v>63.84</v>
+      </c>
+      <c r="H59" s="21">
+        <f t="shared" si="11"/>
+        <v>75.331199999999995</v>
+      </c>
+      <c r="I59" s="55"/>
+      <c r="J59" s="66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="17">
+        <v>5</v>
+      </c>
+      <c r="F60" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="G60" s="21">
+        <f t="shared" si="10"/>
+        <v>50.4</v>
+      </c>
+      <c r="H60" s="21">
+        <f t="shared" si="11"/>
+        <v>59.471999999999994</v>
+      </c>
+      <c r="I60" s="55"/>
+      <c r="J60" s="66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="17">
+        <v>10</v>
+      </c>
+      <c r="F61" s="21">
+        <v>1.27</v>
+      </c>
+      <c r="G61" s="21">
+        <f t="shared" si="10"/>
+        <v>60.959999999999994</v>
+      </c>
+      <c r="H61" s="21">
+        <f t="shared" si="11"/>
+        <v>71.932799999999986</v>
+      </c>
+      <c r="I61" s="55"/>
+      <c r="J61" s="66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="17">
+        <v>10</v>
+      </c>
+      <c r="F62" s="21">
+        <v>1.33</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="10"/>
+        <v>63.84</v>
+      </c>
+      <c r="H62" s="21">
+        <f t="shared" si="11"/>
+        <v>75.331199999999995</v>
+      </c>
+      <c r="I62" s="55"/>
+      <c r="J62" s="66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="17">
+        <v>50</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0.154</v>
+      </c>
+      <c r="G63" s="21">
+        <f t="shared" si="10"/>
+        <v>36.96</v>
+      </c>
+      <c r="H63" s="21">
+        <f t="shared" si="11"/>
+        <v>43.6128</v>
+      </c>
+      <c r="I63" s="55"/>
+      <c r="J63" s="66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="16">
+        <v>10</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G64" s="21">
+        <f t="shared" si="10"/>
+        <v>34.943999999999996</v>
+      </c>
+      <c r="H64" s="21">
+        <f t="shared" si="11"/>
+        <v>41.233919999999991</v>
+      </c>
+      <c r="I64" s="63"/>
+      <c r="J64" s="68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="16">
+        <v>25</v>
+      </c>
+      <c r="F65" s="21">
+        <v>0.218</v>
+      </c>
+      <c r="G65" s="21">
+        <f t="shared" si="10"/>
+        <v>26.16</v>
+      </c>
+      <c r="H65" s="21">
+        <f t="shared" si="11"/>
+        <v>30.8688</v>
+      </c>
+      <c r="I65" s="63"/>
+      <c r="J65" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="16">
+        <v>2</v>
+      </c>
+      <c r="F66" s="21">
+        <v>92.36</v>
+      </c>
+      <c r="G66" s="21">
+        <f t="shared" si="10"/>
+        <v>886.65599999999995</v>
+      </c>
+      <c r="H66" s="21">
+        <f t="shared" si="11"/>
+        <v>1046.2540799999999</v>
+      </c>
+      <c r="I66" s="63"/>
+      <c r="J66" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="65"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="17">
+        <v>50</v>
+      </c>
+      <c r="F68" s="21">
         <v>1.54</v>
       </c>
-      <c r="G39" s="22">
-        <f>E39*F39</f>
-        <v>77</v>
-      </c>
-      <c r="H39" s="22">
-        <f>1.18*G39</f>
-        <v>90.86</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="29" t="s">
+      <c r="G68" s="21">
+        <f>E68*F68*4.8</f>
+        <v>369.59999999999997</v>
+      </c>
+      <c r="H68" s="21">
+        <f>1.18*G68</f>
+        <v>436.12799999999993</v>
+      </c>
+      <c r="I68" s="55"/>
+      <c r="J68" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="16">
+        <v>50</v>
+      </c>
+      <c r="F69" s="16">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G69" s="21">
+        <f t="shared" ref="G69:G80" si="12">E69*F69*4.8</f>
+        <v>974.39999999999986</v>
+      </c>
+      <c r="H69" s="21">
+        <f t="shared" ref="H69:H81" si="13">1.18*G69</f>
+        <v>1149.7919999999997</v>
+      </c>
+      <c r="I69" s="63"/>
+      <c r="J69" s="68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="16">
+        <v>50</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G70" s="21">
+        <f t="shared" si="12"/>
+        <v>170.64</v>
+      </c>
+      <c r="H70" s="21">
+        <f t="shared" si="13"/>
+        <v>201.35519999999997</v>
+      </c>
+      <c r="I70" s="63"/>
+      <c r="J70" s="68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="16">
+        <v>100</v>
+      </c>
+      <c r="F71" s="16">
+        <v>6.54E-2</v>
+      </c>
+      <c r="G71" s="21">
+        <f t="shared" si="12"/>
+        <v>31.391999999999999</v>
+      </c>
+      <c r="H71" s="21">
+        <f t="shared" si="13"/>
+        <v>37.042559999999995</v>
+      </c>
+      <c r="I71" s="63"/>
+      <c r="J71" s="68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="16">
+        <v>100</v>
+      </c>
+      <c r="F72" s="16">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="G72" s="21">
+        <f t="shared" si="12"/>
+        <v>15.071999999999997</v>
+      </c>
+      <c r="H72" s="21">
+        <f t="shared" si="13"/>
+        <v>17.784959999999995</v>
+      </c>
+      <c r="I72" s="63"/>
+      <c r="J72" s="68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="16">
+        <v>100</v>
+      </c>
+      <c r="F73" s="16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G73" s="21">
+        <f t="shared" si="12"/>
+        <v>19.680000000000003</v>
+      </c>
+      <c r="H73" s="21">
+        <f t="shared" si="13"/>
+        <v>23.222400000000004</v>
+      </c>
+      <c r="I73" s="63"/>
+      <c r="J73" s="68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="16">
+        <v>100</v>
+      </c>
+      <c r="F74" s="16">
+        <v>0.128</v>
+      </c>
+      <c r="G74" s="21">
+        <f t="shared" si="12"/>
+        <v>61.44</v>
+      </c>
+      <c r="H74" s="21">
+        <f t="shared" si="13"/>
+        <v>72.499199999999988</v>
+      </c>
+      <c r="I74" s="63"/>
+      <c r="J74" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="16">
+        <v>100</v>
+      </c>
+      <c r="F75" s="16">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G75" s="21">
+        <f t="shared" si="12"/>
+        <v>63.84</v>
+      </c>
+      <c r="H75" s="21">
+        <f t="shared" si="13"/>
+        <v>75.331199999999995</v>
+      </c>
+      <c r="I75" s="63"/>
+      <c r="J75" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="16">
+        <v>100</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G76" s="21">
+        <f t="shared" si="12"/>
+        <v>63.84</v>
+      </c>
+      <c r="H76" s="21">
+        <f t="shared" si="13"/>
+        <v>75.331199999999995</v>
+      </c>
+      <c r="I76" s="63"/>
+      <c r="J76" s="68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="16">
+        <v>10</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G77" s="21">
+        <f t="shared" si="12"/>
+        <v>39.743999999999993</v>
+      </c>
+      <c r="H77" s="21">
+        <f t="shared" si="13"/>
+        <v>46.897919999999992</v>
+      </c>
+      <c r="I77" s="63"/>
+      <c r="J77" s="68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="16">
+        <v>100</v>
+      </c>
+      <c r="F78" s="16">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="G78" s="21">
+        <f t="shared" si="12"/>
+        <v>33.216000000000001</v>
+      </c>
+      <c r="H78" s="21">
+        <f t="shared" si="13"/>
+        <v>39.194879999999998</v>
+      </c>
+      <c r="I78" s="63"/>
+      <c r="J78" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="16">
+        <v>50</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G79" s="21">
+        <f t="shared" si="12"/>
+        <v>27.840000000000003</v>
+      </c>
+      <c r="H79" s="21">
+        <f t="shared" si="13"/>
+        <v>32.851200000000006</v>
+      </c>
+      <c r="I79" s="63"/>
+      <c r="J79" s="68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="16">
+        <v>10</v>
+      </c>
+      <c r="F80" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="G80" s="21">
+        <f t="shared" si="12"/>
+        <v>24.479999999999997</v>
+      </c>
+      <c r="H80" s="21">
+        <f t="shared" si="13"/>
+        <v>28.886399999999995</v>
+      </c>
+      <c r="I80" s="63"/>
+      <c r="J80" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="16">
+        <v>100</v>
+      </c>
+      <c r="F81" s="16">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="G81" s="21">
+        <f>E81*F81*4.8</f>
+        <v>27.743999999999996</v>
+      </c>
+      <c r="H81" s="21">
+        <f t="shared" si="13"/>
+        <v>32.737919999999995</v>
+      </c>
+      <c r="I81" s="63"/>
+      <c r="J81" s="68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="65"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="16">
+        <v>10</v>
+      </c>
+      <c r="F83" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G83" s="16">
+        <f>E83*F83*4.8</f>
+        <v>4.8</v>
+      </c>
+      <c r="H83" s="16">
+        <f>G83*1.18</f>
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="I83" s="37"/>
+      <c r="J83" s="68" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="16">
+        <v>5</v>
+      </c>
+      <c r="F84" s="16">
+        <v>0.106</v>
+      </c>
+      <c r="G84" s="16">
+        <f t="shared" ref="G84:G97" si="14">E84*F84*4.8</f>
+        <v>2.544</v>
+      </c>
+      <c r="H84" s="16">
+        <f t="shared" ref="H84:H97" si="15">G84*1.18</f>
+        <v>3.0019199999999997</v>
+      </c>
+      <c r="I84" s="37"/>
+      <c r="J84" s="68" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="16">
+        <v>2</v>
+      </c>
+      <c r="F85" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G85" s="16">
+        <f t="shared" si="14"/>
+        <v>21.312000000000001</v>
+      </c>
+      <c r="H85" s="16">
+        <f t="shared" si="15"/>
+        <v>25.148160000000001</v>
+      </c>
+      <c r="I85" s="37"/>
+      <c r="J85" s="68" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="16">
+        <v>6</v>
+      </c>
+      <c r="F86" s="16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G86" s="16">
+        <f t="shared" si="14"/>
+        <v>59.039999999999992</v>
+      </c>
+      <c r="H86" s="16">
+        <f t="shared" si="15"/>
+        <v>69.667199999999994</v>
+      </c>
+      <c r="I86" s="37"/>
+      <c r="J86" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="16">
+        <v>2</v>
+      </c>
+      <c r="F87" s="16">
+        <v>0.152</v>
+      </c>
+      <c r="G87" s="16">
+        <f t="shared" si="14"/>
+        <v>1.4591999999999998</v>
+      </c>
+      <c r="H87" s="16">
+        <f t="shared" si="15"/>
+        <v>1.7218559999999996</v>
+      </c>
+      <c r="I87" s="37"/>
+      <c r="J87" s="68" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="16">
+        <v>2</v>
+      </c>
+      <c r="F88" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="G88" s="16">
+        <f t="shared" si="14"/>
+        <v>29.279999999999998</v>
+      </c>
+      <c r="H88" s="16">
+        <f t="shared" si="15"/>
+        <v>34.550399999999996</v>
+      </c>
+      <c r="I88" s="37"/>
+      <c r="J88" s="68" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="16">
+        <v>2</v>
+      </c>
+      <c r="F89" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="G89" s="16">
+        <f t="shared" si="14"/>
+        <v>9.8879999999999999</v>
+      </c>
+      <c r="H89" s="16">
+        <f t="shared" si="15"/>
+        <v>11.66784</v>
+      </c>
+      <c r="I89" s="37"/>
+      <c r="J89" s="68" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="16">
+        <v>5</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="14"/>
+        <v>9.4320000000000004</v>
+      </c>
+      <c r="H90" s="16">
+        <f t="shared" si="15"/>
+        <v>11.129759999999999</v>
+      </c>
+      <c r="I90" s="37"/>
+      <c r="J90" s="68" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="16">
+        <v>2</v>
+      </c>
+      <c r="F91" s="16">
+        <v>1.77</v>
+      </c>
+      <c r="G91" s="16">
+        <f t="shared" si="14"/>
+        <v>16.992000000000001</v>
+      </c>
+      <c r="H91" s="16">
+        <f t="shared" si="15"/>
+        <v>20.050560000000001</v>
+      </c>
+      <c r="I91" s="37"/>
+      <c r="J91" s="68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="16">
+        <v>5</v>
+      </c>
+      <c r="F92" s="16">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G92" s="16">
+        <f t="shared" si="14"/>
+        <v>3.24</v>
+      </c>
+      <c r="H92" s="16">
+        <f t="shared" si="15"/>
+        <v>3.8231999999999999</v>
+      </c>
+      <c r="I92" s="37"/>
+      <c r="J92" s="68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="16">
+        <v>5</v>
+      </c>
+      <c r="F93" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G93" s="16">
+        <f t="shared" si="14"/>
+        <v>27.84</v>
+      </c>
+      <c r="H93" s="16">
+        <f t="shared" si="15"/>
+        <v>32.851199999999999</v>
+      </c>
+      <c r="I93" s="37"/>
+      <c r="J93" s="68" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="16">
+        <v>2</v>
+      </c>
+      <c r="F94" s="16">
+        <v>1.46</v>
+      </c>
+      <c r="G94" s="16">
+        <f t="shared" si="14"/>
+        <v>14.016</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="15"/>
+        <v>16.538879999999999</v>
+      </c>
+      <c r="I94" s="37"/>
+      <c r="J94" s="68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="16">
+        <v>4</v>
+      </c>
+      <c r="F95" s="16">
+        <v>1.84</v>
+      </c>
+      <c r="G95" s="16">
+        <f t="shared" si="14"/>
+        <v>35.328000000000003</v>
+      </c>
+      <c r="H95" s="16">
+        <f t="shared" si="15"/>
+        <v>41.687040000000003</v>
+      </c>
+      <c r="I95" s="37"/>
+      <c r="J95" s="68" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="16">
+        <v>2</v>
+      </c>
+      <c r="F96" s="16">
+        <v>1.42</v>
+      </c>
+      <c r="G96" s="16">
+        <f t="shared" si="14"/>
+        <v>13.632</v>
+      </c>
+      <c r="H96" s="16">
+        <f t="shared" si="15"/>
+        <v>16.085760000000001</v>
+      </c>
+      <c r="I96" s="37"/>
+      <c r="J96" s="68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="16">
+        <v>2</v>
+      </c>
+      <c r="F97" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="G97" s="16">
+        <f t="shared" si="14"/>
+        <v>36.287999999999997</v>
+      </c>
+      <c r="H97" s="16">
+        <f t="shared" si="15"/>
+        <v>42.819839999999992</v>
+      </c>
+      <c r="I97" s="37"/>
+      <c r="J97" s="68" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="16">
+        <v>15</v>
+      </c>
+      <c r="F99" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="G99" s="16">
+        <f>E99*F99*4.8</f>
+        <v>26.639999999999997</v>
+      </c>
+      <c r="H99" s="16">
+        <f>G99*1.18</f>
+        <v>31.435199999999995</v>
+      </c>
+      <c r="I99" s="40"/>
+      <c r="J99" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="40" t="s">
+      <c r="C100" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="16">
+        <v>3</v>
+      </c>
+      <c r="F100" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="G100" s="16">
+        <f t="shared" ref="G100:G142" si="16">E100*F100*4.8</f>
+        <v>25.344000000000001</v>
+      </c>
+      <c r="H100" s="16">
+        <f t="shared" ref="H100:H142" si="17">G100*1.18</f>
+        <v>29.905919999999998</v>
+      </c>
+      <c r="I100" s="40"/>
+      <c r="J100" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="16">
+        <v>3</v>
+      </c>
+      <c r="F101" s="16">
+        <v>5.91</v>
+      </c>
+      <c r="G101" s="16">
+        <f t="shared" si="16"/>
+        <v>85.103999999999999</v>
+      </c>
+      <c r="H101" s="16">
+        <f t="shared" si="17"/>
+        <v>100.42272</v>
+      </c>
+      <c r="I101" s="40"/>
+      <c r="J101" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="16">
+        <v>3</v>
+      </c>
+      <c r="F102" s="16">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G102" s="16">
+        <f t="shared" si="16"/>
+        <v>63.936</v>
+      </c>
+      <c r="H102" s="16">
+        <f t="shared" si="17"/>
+        <v>75.444479999999999</v>
+      </c>
+      <c r="I102" s="40"/>
+      <c r="J102" s="66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="16">
+        <v>3</v>
+      </c>
+      <c r="F103" s="16">
+        <v>5.99</v>
+      </c>
+      <c r="G103" s="16">
+        <f t="shared" si="16"/>
+        <v>86.255999999999986</v>
+      </c>
+      <c r="H103" s="16">
+        <f t="shared" si="17"/>
+        <v>101.78207999999998</v>
+      </c>
+      <c r="I103" s="40"/>
+      <c r="J103" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="16">
+        <v>100</v>
+      </c>
+      <c r="F104" s="16">
+        <v>9.11E-2</v>
+      </c>
+      <c r="G104" s="16">
+        <f t="shared" si="16"/>
+        <v>43.727999999999994</v>
+      </c>
+      <c r="H104" s="16">
+        <f t="shared" si="17"/>
+        <v>51.599039999999988</v>
+      </c>
+      <c r="I104" s="40"/>
+      <c r="J104" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="16">
+        <v>50</v>
+      </c>
+      <c r="F105" s="16">
+        <v>0.186</v>
+      </c>
+      <c r="G105" s="16">
+        <f t="shared" si="16"/>
+        <v>44.64</v>
+      </c>
+      <c r="H105" s="16">
+        <f t="shared" si="17"/>
+        <v>52.675199999999997</v>
+      </c>
+      <c r="I105" s="40"/>
+      <c r="J105" s="66" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="16">
+        <v>50</v>
+      </c>
+      <c r="F106" s="16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G106" s="16">
+        <f t="shared" si="16"/>
+        <v>55.92</v>
+      </c>
+      <c r="H106" s="16">
+        <f t="shared" si="17"/>
+        <v>65.985600000000005</v>
+      </c>
+      <c r="I106" s="40"/>
+      <c r="J106" s="66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="16">
+        <v>50</v>
+      </c>
+      <c r="F107" s="16">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="G107" s="16">
+        <f t="shared" si="16"/>
+        <v>15.048</v>
+      </c>
+      <c r="H107" s="16">
+        <f t="shared" si="17"/>
+        <v>17.756640000000001</v>
+      </c>
+      <c r="I107" s="40"/>
+      <c r="J107" s="66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="16">
+        <v>200</v>
+      </c>
+      <c r="F108" s="16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G108" s="16">
+        <f t="shared" si="16"/>
+        <v>8.6399999999999988</v>
+      </c>
+      <c r="H108" s="16">
+        <f t="shared" si="17"/>
+        <v>10.195199999999998</v>
+      </c>
+      <c r="I108" s="40"/>
+      <c r="J108" s="66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="16">
+        <v>50</v>
+      </c>
+      <c r="F109" s="16">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G109" s="16">
+        <f t="shared" si="16"/>
+        <v>15.167999999999999</v>
+      </c>
+      <c r="H109" s="16">
+        <f t="shared" si="17"/>
+        <v>17.898239999999998</v>
+      </c>
+      <c r="I109" s="40"/>
+      <c r="J109" s="66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="16">
+        <v>200</v>
+      </c>
+      <c r="F110" s="16">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G110" s="16">
+        <f t="shared" si="16"/>
+        <v>9.0240000000000009</v>
+      </c>
+      <c r="H110" s="16">
+        <f t="shared" si="17"/>
+        <v>10.64832</v>
+      </c>
+      <c r="I110" s="40"/>
+      <c r="J110" s="66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F111" s="16">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G111" s="16">
+        <f t="shared" si="16"/>
+        <v>48.48</v>
+      </c>
+      <c r="H111" s="16">
+        <f t="shared" si="17"/>
+        <v>57.206399999999995</v>
+      </c>
+      <c r="I111" s="40"/>
+      <c r="J111" s="66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="16">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G112" s="16">
+        <f t="shared" si="16"/>
+        <v>30.24</v>
+      </c>
+      <c r="H112" s="16">
+        <f t="shared" si="17"/>
+        <v>35.683199999999999</v>
+      </c>
+      <c r="I112" s="40"/>
+      <c r="J112" s="66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="16">
+        <v>100</v>
+      </c>
+      <c r="F113" s="16">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="G113" s="16">
+        <f t="shared" si="16"/>
+        <v>17.855999999999998</v>
+      </c>
+      <c r="H113" s="16">
+        <f t="shared" si="17"/>
+        <v>21.070079999999997</v>
+      </c>
+      <c r="I113" s="40"/>
+      <c r="J113" s="66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="16">
+        <v>100</v>
+      </c>
+      <c r="F114" s="16">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="G114" s="16">
+        <f t="shared" si="16"/>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="H114" s="16">
+        <f t="shared" si="17"/>
+        <v>18.974399999999996</v>
+      </c>
+      <c r="I114" s="40"/>
+      <c r="J114" s="66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="16">
+        <v>50</v>
+      </c>
+      <c r="F115" s="16">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="G115" s="16">
+        <f t="shared" si="16"/>
+        <v>20.015999999999998</v>
+      </c>
+      <c r="H115" s="16">
+        <f t="shared" si="17"/>
+        <v>23.618879999999997</v>
+      </c>
+      <c r="I115" s="40"/>
+      <c r="J115" s="66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="16">
+        <v>25</v>
+      </c>
+      <c r="F116" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="G116" s="16">
+        <f t="shared" si="16"/>
+        <v>39.6</v>
+      </c>
+      <c r="H116" s="16">
+        <f t="shared" si="17"/>
+        <v>46.728000000000002</v>
+      </c>
+      <c r="I116" s="40"/>
+      <c r="J116" s="66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="16">
+        <v>10</v>
+      </c>
+      <c r="F117" s="16">
+        <v>0.313</v>
+      </c>
+      <c r="G117" s="16">
+        <f t="shared" si="16"/>
+        <v>15.023999999999999</v>
+      </c>
+      <c r="H117" s="16">
+        <f t="shared" si="17"/>
+        <v>17.728319999999997</v>
+      </c>
+      <c r="I117" s="40"/>
+      <c r="J117" s="66" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="16">
+        <v>25</v>
+      </c>
+      <c r="F118" s="16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G118" s="16">
+        <f t="shared" si="16"/>
+        <v>14.279999999999998</v>
+      </c>
+      <c r="H118" s="16">
+        <f t="shared" si="17"/>
+        <v>16.850399999999997</v>
+      </c>
+      <c r="I118" s="40"/>
+      <c r="J118" s="66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="16">
+        <v>10</v>
+      </c>
+      <c r="F119" s="16">
+        <v>0.316</v>
+      </c>
+      <c r="G119" s="16">
+        <f t="shared" si="16"/>
+        <v>15.167999999999999</v>
+      </c>
+      <c r="H119" s="16">
+        <f t="shared" si="17"/>
+        <v>17.898239999999998</v>
+      </c>
+      <c r="I119" s="40"/>
+      <c r="J119" s="66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="16">
+        <v>100</v>
+      </c>
+      <c r="F120" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G120" s="16">
+        <f t="shared" si="16"/>
+        <v>1.92</v>
+      </c>
+      <c r="H120" s="16">
+        <f t="shared" si="17"/>
+        <v>2.2655999999999996</v>
+      </c>
+      <c r="I120" s="40"/>
+      <c r="J120" s="66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="16">
+        <v>100</v>
+      </c>
+      <c r="F121" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G121" s="16">
+        <f t="shared" si="16"/>
+        <v>1.92</v>
+      </c>
+      <c r="H121" s="16">
+        <f t="shared" si="17"/>
+        <v>2.2655999999999996</v>
+      </c>
+      <c r="I121" s="40"/>
+      <c r="J121" s="66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="16">
+        <v>100</v>
+      </c>
+      <c r="F122" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G122" s="16">
+        <f t="shared" si="16"/>
+        <v>1.92</v>
+      </c>
+      <c r="H122" s="16">
+        <f t="shared" si="17"/>
+        <v>2.2655999999999996</v>
+      </c>
+      <c r="I122" s="40"/>
+      <c r="J122" s="66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F123" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G123" s="16">
+        <f t="shared" si="16"/>
+        <v>12.48</v>
+      </c>
+      <c r="H123" s="16">
+        <f t="shared" si="17"/>
+        <v>14.7264</v>
+      </c>
+      <c r="I123" s="40"/>
+      <c r="J123" s="66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="16">
+        <v>100</v>
+      </c>
+      <c r="F124" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G124" s="16">
+        <f t="shared" si="16"/>
+        <v>1.92</v>
+      </c>
+      <c r="H124" s="16">
+        <f t="shared" si="17"/>
+        <v>2.2655999999999996</v>
+      </c>
+      <c r="I124" s="40"/>
+      <c r="J124" s="66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="16">
+        <v>100</v>
+      </c>
+      <c r="F125" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G125" s="16">
+        <f t="shared" si="16"/>
+        <v>1.92</v>
+      </c>
+      <c r="H125" s="16">
+        <f t="shared" si="17"/>
+        <v>2.2655999999999996</v>
+      </c>
+      <c r="I125" s="40"/>
+      <c r="J125" s="66" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F126" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G126" s="16">
+        <f t="shared" si="16"/>
+        <v>10.56</v>
+      </c>
+      <c r="H126" s="16">
+        <f t="shared" si="17"/>
+        <v>12.460800000000001</v>
+      </c>
+      <c r="I126" s="40"/>
+      <c r="J126" s="66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="16">
+        <v>100</v>
+      </c>
+      <c r="F127" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="G127" s="16">
+        <f t="shared" si="16"/>
+        <v>0.96</v>
+      </c>
+      <c r="H127" s="16">
+        <f t="shared" si="17"/>
+        <v>1.1327999999999998</v>
+      </c>
+      <c r="I127" s="40"/>
+      <c r="J127" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="16">
+        <v>100</v>
+      </c>
+      <c r="F128" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="G128" s="16">
+        <f t="shared" si="16"/>
+        <v>0.96</v>
+      </c>
+      <c r="H128" s="16">
+        <f t="shared" si="17"/>
+        <v>1.1327999999999998</v>
+      </c>
+      <c r="I128" s="40"/>
+      <c r="J128" s="66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="16">
+        <v>100</v>
+      </c>
+      <c r="F129" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="G129" s="16">
+        <f t="shared" si="16"/>
+        <v>0.96</v>
+      </c>
+      <c r="H129" s="16">
+        <f t="shared" si="17"/>
+        <v>1.1327999999999998</v>
+      </c>
+      <c r="I129" s="40"/>
+      <c r="J129" s="66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F130" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G130" s="16">
+        <f t="shared" si="16"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" si="17"/>
+        <v>8.4959999999999987</v>
+      </c>
+      <c r="I130" s="40"/>
+      <c r="J130" s="66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="16">
+        <v>100</v>
+      </c>
+      <c r="F131" s="16">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G131" s="16">
+        <f t="shared" si="16"/>
+        <v>1.056</v>
+      </c>
+      <c r="H131" s="16">
+        <f t="shared" si="17"/>
+        <v>1.2460800000000001</v>
+      </c>
+      <c r="I131" s="40"/>
+      <c r="J131" s="66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="16">
+        <v>100</v>
+      </c>
+      <c r="F132" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="G132" s="16">
+        <f t="shared" si="16"/>
+        <v>0.96</v>
+      </c>
+      <c r="H132" s="16">
+        <f t="shared" si="17"/>
+        <v>1.1327999999999998</v>
+      </c>
+      <c r="I132" s="40"/>
+      <c r="J132" s="66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F133" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G133" s="16">
+        <f t="shared" si="16"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H133" s="16">
+        <f t="shared" si="17"/>
+        <v>8.4959999999999987</v>
+      </c>
+      <c r="I133" s="40"/>
+      <c r="J133" s="66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="16">
+        <v>50</v>
+      </c>
+      <c r="F134" s="16">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="G134" s="16">
+        <f t="shared" si="16"/>
+        <v>23.352</v>
+      </c>
+      <c r="H134" s="16">
+        <f t="shared" si="17"/>
+        <v>27.55536</v>
+      </c>
+      <c r="I134" s="40"/>
+      <c r="J134" s="66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E135" s="16">
+        <v>100</v>
+      </c>
+      <c r="F135" s="16">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="G135" s="16">
+        <f t="shared" si="16"/>
+        <v>41.375999999999998</v>
+      </c>
+      <c r="H135" s="16">
+        <f t="shared" si="17"/>
+        <v>48.823679999999996</v>
+      </c>
+      <c r="I135" s="40"/>
+      <c r="J135" s="66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="16">
+        <v>50</v>
+      </c>
+      <c r="F136" s="16">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="G136" s="16">
+        <f t="shared" si="16"/>
+        <v>19.727999999999998</v>
+      </c>
+      <c r="H136" s="16">
+        <f t="shared" si="17"/>
+        <v>23.279039999999995</v>
+      </c>
+      <c r="I136" s="40"/>
+      <c r="J136" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="16">
+        <v>50</v>
+      </c>
+      <c r="F137" s="16">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="G137" s="16">
+        <f t="shared" si="16"/>
+        <v>19.727999999999998</v>
+      </c>
+      <c r="H137" s="16">
+        <f t="shared" si="17"/>
+        <v>23.279039999999995</v>
+      </c>
+      <c r="I137" s="40"/>
+      <c r="J137" s="66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138" s="16">
+        <v>50</v>
+      </c>
+      <c r="F138" s="16">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="G138" s="16">
+        <f t="shared" si="16"/>
+        <v>13.824</v>
+      </c>
+      <c r="H138" s="16">
+        <f t="shared" si="17"/>
+        <v>16.31232</v>
+      </c>
+      <c r="I138" s="40"/>
+      <c r="J138" s="66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="16">
+        <v>20</v>
+      </c>
+      <c r="F139" s="16">
+        <v>0.224</v>
+      </c>
+      <c r="G139" s="16">
+        <f t="shared" si="16"/>
+        <v>21.504000000000001</v>
+      </c>
+      <c r="H139" s="16">
+        <f t="shared" si="17"/>
+        <v>25.37472</v>
+      </c>
+      <c r="I139" s="64"/>
+      <c r="J139" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="16">
+        <v>20</v>
+      </c>
+      <c r="F140" s="16">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G140" s="16">
+        <f t="shared" si="16"/>
+        <v>37.247999999999998</v>
+      </c>
+      <c r="H140" s="16">
+        <f t="shared" si="17"/>
+        <v>43.952639999999995</v>
+      </c>
+      <c r="I140" s="64"/>
+      <c r="J140" s="66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E141" s="16">
+        <v>20</v>
+      </c>
+      <c r="F141" s="16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="G141" s="16">
+        <f t="shared" si="16"/>
+        <v>74.207999999999998</v>
+      </c>
+      <c r="H141" s="16">
+        <f t="shared" si="17"/>
+        <v>87.565439999999995</v>
+      </c>
+      <c r="I141" s="64"/>
+      <c r="J141" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="16">
+        <v>20</v>
+      </c>
+      <c r="F142" s="16">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G142" s="16">
+        <f t="shared" si="16"/>
+        <v>40.415999999999997</v>
+      </c>
+      <c r="H142" s="16">
+        <f t="shared" si="17"/>
+        <v>47.690879999999993</v>
+      </c>
+      <c r="I142" s="64"/>
+      <c r="J142" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="16">
-        <v>50</v>
-      </c>
-      <c r="F40" s="16">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="G40" s="22">
-        <f t="shared" ref="G40:G45" si="12">E40*F40</f>
-        <v>202.99999999999997</v>
-      </c>
-      <c r="H40" s="22">
-        <f t="shared" ref="H40:H45" si="13">1.18*G40</f>
-        <v>239.53999999999996</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="16">
-        <v>50</v>
-      </c>
-      <c r="F41" s="16">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="G41" s="22">
-        <f t="shared" si="12"/>
-        <v>35.549999999999997</v>
-      </c>
-      <c r="H41" s="22">
-        <f t="shared" si="13"/>
-        <v>41.948999999999991</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="16">
-        <v>100</v>
-      </c>
-      <c r="F42" s="16">
-        <v>6.54E-2</v>
-      </c>
-      <c r="G42" s="22">
-        <f t="shared" si="12"/>
-        <v>6.54</v>
-      </c>
-      <c r="H42" s="22">
-        <f t="shared" si="13"/>
-        <v>7.7172000000000001</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="60"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="16">
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="16">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16">
-        <f>E47*F47</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="16">
-        <f>G47*1.18</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="16">
-        <v>0</v>
-      </c>
-      <c r="F48" s="16">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16">
-        <f t="shared" ref="G48:G52" si="14">E48*F48</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="16">
-        <f t="shared" ref="H48:H52" si="15">G48*1.18</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="16">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="16">
-        <v>0</v>
-      </c>
-      <c r="F50" s="16">
-        <v>0</v>
-      </c>
-      <c r="G50" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="16">
-        <v>0</v>
-      </c>
-      <c r="F51" s="16">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="16">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16">
-        <v>0</v>
-      </c>
-      <c r="G52" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16">
-        <v>25</v>
-      </c>
-      <c r="F54" s="16">
-        <v>0.37</v>
-      </c>
-      <c r="G54" s="16">
-        <f>E54*F54</f>
-        <v>9.25</v>
-      </c>
-      <c r="H54" s="16">
-        <f>G54*4.7*1.18</f>
-        <v>51.3005</v>
-      </c>
-      <c r="I54" s="65"/>
-      <c r="J54" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16">
-        <f t="shared" ref="G55:G59" si="16">E55*F55</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="16">
-        <f t="shared" ref="H55:H58" si="17">G55*4.7*1.18</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="65"/>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16">
-        <v>10</v>
-      </c>
-      <c r="F56" s="16">
-        <v>1.76</v>
-      </c>
-      <c r="G56" s="16">
-        <f t="shared" si="16"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H56" s="16">
-        <f t="shared" si="17"/>
-        <v>97.609600000000015</v>
-      </c>
-      <c r="I56" s="65"/>
-      <c r="J56" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16">
-        <v>10</v>
-      </c>
-      <c r="F57" s="16">
-        <v>5.91</v>
-      </c>
-      <c r="G57" s="16">
-        <f t="shared" si="16"/>
-        <v>59.1</v>
-      </c>
-      <c r="H57" s="16">
-        <f t="shared" si="17"/>
-        <v>327.76860000000005</v>
-      </c>
-      <c r="I57" s="65"/>
-      <c r="J57" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16">
-        <v>10</v>
-      </c>
-      <c r="F58" s="16">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="G58" s="16">
-        <f t="shared" si="16"/>
-        <v>44.400000000000006</v>
-      </c>
-      <c r="H58" s="16">
-        <f t="shared" si="17"/>
-        <v>246.24240000000003</v>
-      </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="16">
-        <v>50</v>
-      </c>
-      <c r="F59" s="16">
-        <v>0.224</v>
-      </c>
-      <c r="G59" s="16">
-        <f t="shared" si="16"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="H59" s="16">
-        <f>G59*4.7*1.18</f>
-        <v>62.115200000000009</v>
-      </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="16">
-        <v>50</v>
-      </c>
-      <c r="F60" s="16">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G60" s="16">
-        <f>E60*F60</f>
-        <v>19.400000000000002</v>
-      </c>
-      <c r="H60" s="16">
-        <f t="shared" ref="H60:H63" si="18">G60*4.7*1.18</f>
-        <v>107.5924</v>
-      </c>
-      <c r="I60" s="66"/>
-      <c r="J60" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="16">
-        <v>25</v>
-      </c>
-      <c r="F61" s="16">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="G61" s="16">
-        <f>E61*F61</f>
-        <v>19.324999999999999</v>
-      </c>
-      <c r="H61" s="16">
-        <f t="shared" si="18"/>
-        <v>107.17644999999999</v>
-      </c>
-      <c r="I61" s="66"/>
-      <c r="J61" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="16">
-        <v>25</v>
-      </c>
-      <c r="F62" s="16">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="G62" s="16">
-        <f>E62*F62</f>
-        <v>10.525</v>
-      </c>
-      <c r="H62" s="16">
-        <f t="shared" si="18"/>
-        <v>58.371649999999995</v>
-      </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="30"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="22">
-        <f t="shared" ref="G68:G72" si="19">E68*F68</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="22">
-        <f t="shared" ref="H68:H72" si="20">1.18*G68</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="30"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+    </row>
+    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="22">
-        <f>SUM(H10:H71)</f>
-        <v>4527.4877199999992</v>
-      </c>
-      <c r="I73" s="22">
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="21">
+        <f>SUM(H10:H142)</f>
+        <v>10718.944415999991</v>
+      </c>
+      <c r="I143" s="55">
         <v>5500</v>
       </c>
-      <c r="J73" s="30"/>
+      <c r="J143" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A38:I38"/>
+  <mergeCells count="11">
+    <mergeCell ref="A67:I67"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A143:G143"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A82:I82"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A98:I98"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J34" r:id="rId1"/>
-    <hyperlink ref="J26" r:id="rId2"/>
-    <hyperlink ref="J17" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J13" r:id="rId5"/>
-    <hyperlink ref="J12" r:id="rId6"/>
-    <hyperlink ref="J41" r:id="rId7"/>
-    <hyperlink ref="J59" r:id="rId8"/>
-    <hyperlink ref="J60" r:id="rId9"/>
-    <hyperlink ref="J61" r:id="rId10"/>
-    <hyperlink ref="J62" r:id="rId11"/>
-    <hyperlink ref="J54" r:id="rId12"/>
-    <hyperlink ref="J56" r:id="rId13"/>
-    <hyperlink ref="J57" r:id="rId14"/>
-    <hyperlink ref="J58" r:id="rId15"/>
+    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J11" r:id="rId2"/>
+    <hyperlink ref="J13" r:id="rId3"/>
+    <hyperlink ref="J12" r:id="rId4"/>
+    <hyperlink ref="J70" r:id="rId5"/>
+    <hyperlink ref="J139" r:id="rId6"/>
+    <hyperlink ref="J140" r:id="rId7"/>
+    <hyperlink ref="J141" r:id="rId8"/>
+    <hyperlink ref="J142" r:id="rId9"/>
+    <hyperlink ref="J99" r:id="rId10"/>
+    <hyperlink ref="J100" r:id="rId11"/>
+    <hyperlink ref="J101" r:id="rId12"/>
+    <hyperlink ref="J102" r:id="rId13"/>
+    <hyperlink ref="J18" r:id="rId14"/>
+    <hyperlink ref="J19" r:id="rId15"/>
+    <hyperlink ref="J20" r:id="rId16"/>
+    <hyperlink ref="J21" r:id="rId17"/>
+    <hyperlink ref="J78" r:id="rId18"/>
+    <hyperlink ref="J81" r:id="rId19"/>
+    <hyperlink ref="J39" r:id="rId20"/>
+    <hyperlink ref="J40" r:id="rId21"/>
+    <hyperlink ref="J41" r:id="rId22"/>
+    <hyperlink ref="J42" r:id="rId23"/>
+    <hyperlink ref="J43" r:id="rId24"/>
+    <hyperlink ref="J66" r:id="rId25"/>
+    <hyperlink ref="J44" r:id="rId26"/>
+    <hyperlink ref="J45" r:id="rId27"/>
+    <hyperlink ref="J46" r:id="rId28"/>
+    <hyperlink ref="J62" r:id="rId29"/>
+    <hyperlink ref="J64" r:id="rId30"/>
+    <hyperlink ref="J65" r:id="rId31"/>
+    <hyperlink ref="J26" r:id="rId32"/>
+    <hyperlink ref="J31" r:id="rId33"/>
+    <hyperlink ref="J104" r:id="rId34"/>
+    <hyperlink ref="J83" r:id="rId35"/>
+    <hyperlink ref="J84" r:id="rId36"/>
+    <hyperlink ref="J85" r:id="rId37"/>
+    <hyperlink ref="J86" r:id="rId38"/>
+    <hyperlink ref="J87" r:id="rId39"/>
+    <hyperlink ref="J88" r:id="rId40"/>
+    <hyperlink ref="J89" r:id="rId41"/>
+    <hyperlink ref="J90" r:id="rId42"/>
+    <hyperlink ref="J91" r:id="rId43"/>
+    <hyperlink ref="J92" r:id="rId44"/>
+    <hyperlink ref="J94" r:id="rId45"/>
+    <hyperlink ref="J96" r:id="rId46"/>
+    <hyperlink ref="J97" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -3098,15 +6558,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -3488,15 +6948,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>3091.6</v>
@@ -3617,15 +7077,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -3790,15 +7250,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="8">
         <f>SUM(H2:H4)</f>
         <v>6608</v>
@@ -4180,15 +7640,15 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8">
         <f>SUM(H7:H18)</f>
         <v>5097.5999999999995</v>
@@ -4309,15 +7769,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="9">
         <f>SUM(H21:H24)</f>
         <v>5900</v>
@@ -4349,32 +7809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>66</v>
+      <c r="A2" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>65</v>
+      <c r="A3" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>70</v>
+      <c r="A5" s="28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>71</v>
+      <c r="A6" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
